--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2409209.396566856</v>
+        <v>-2409876.192687106</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397594.7381667055</v>
+        <v>397594.7381667056</v>
       </c>
     </row>
     <row r="8">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="E11" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="H11" t="n">
-        <v>72.80927171816032</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.76019284593443</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>45.49679044823568</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.552288423990102</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1455,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>65.82808979243359</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827154</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="U12" t="n">
-        <v>32.57485987793716</v>
+        <v>44.76386629252279</v>
       </c>
       <c r="V12" t="n">
-        <v>35.99613671235124</v>
+        <v>35.99613671235122</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396056</v>
       </c>
       <c r="X12" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641958</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097462</v>
+        <v>82.66266089709387</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787947</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512929</v>
       </c>
       <c r="U13" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V13" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139887</v>
       </c>
       <c r="W13" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519153</v>
+        <v>17.2666712051915</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111742</v>
+        <v>12.48848861111739</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>79.2318700166079</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681796</v>
+        <v>35.89105811681794</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.588811635894</v>
+        <v>22.58881163589397</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593445</v>
+        <v>17.76019284593443</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>45.49679044823568</v>
       </c>
       <c r="V14" t="n">
-        <v>82.66266089709399</v>
+        <v>33.7350795683719</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>65.82808979243357</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -1737,22 +1737,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827154</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793716</v>
+        <v>50.78674488580727</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235124</v>
+        <v>35.99613671235122</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396056</v>
       </c>
       <c r="X15" t="n">
-        <v>12.6601302364196</v>
+        <v>12.66013023641958</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097462</v>
+        <v>18.73150193097459</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787947</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512929</v>
       </c>
       <c r="U16" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V16" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139887</v>
       </c>
       <c r="W16" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519153</v>
+        <v>17.2666712051915</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111742</v>
+        <v>12.48848861111739</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C17" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D17" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E17" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F17" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G17" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="H17" t="n">
-        <v>10.73420125866871</v>
+        <v>10.73420125866866</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X17" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="18">
@@ -1932,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>14.90099134532549</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,16 +1980,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>72.80927171816033</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C20" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D20" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E20" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F20" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G20" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709394</v>
       </c>
       <c r="H20" t="n">
-        <v>10.73420125866869</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X20" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="21">
@@ -2172,16 +2172,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>14.90099134532547</v>
       </c>
       <c r="H21" t="n">
-        <v>72.80927171816036</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,28 +2202,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="X21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C23" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D23" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E23" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F23" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G23" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866869</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X23" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="24">
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
         <v>82.66266089709399</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="G24" t="n">
+        <v>14.90099134532557</v>
+      </c>
+      <c r="H24" t="n">
         <v>82.66266089709399</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>72.80927171816033</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2417617096389</v>
+        <v>161.2417617096387</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3600187129844</v>
+        <v>137.3600187129842</v>
       </c>
       <c r="D26" t="n">
-        <v>124.9266809740328</v>
+        <v>124.9266809740327</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934417</v>
+        <v>158.6334333934415</v>
       </c>
       <c r="F26" t="n">
-        <v>190.353770971819</v>
+        <v>190.3537709718189</v>
       </c>
       <c r="G26" t="n">
-        <v>205.9806087774161</v>
+        <v>205.9806087774159</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389906</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69836365167453</v>
+        <v>27.69836365167436</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075057</v>
+        <v>14.39611717075039</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380791022</v>
+        <v>9.567498380790852</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309228</v>
+        <v>37.30409598309211</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0343049409576</v>
+        <v>108.0343049409574</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0509851575725</v>
+        <v>125.0509851575723</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9372356265117</v>
+        <v>146.9372356265115</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4400887502555</v>
+        <v>169.4400887502553</v>
       </c>
     </row>
     <row r="27">
@@ -2637,25 +2637,25 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,28 +2679,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>149.6959270375438</v>
+        <v>2.099381123127934</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38216541279373</v>
+        <v>24.38216541279355</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720764</v>
       </c>
       <c r="W27" t="n">
-        <v>53.85910490881716</v>
+        <v>53.85910490881699</v>
       </c>
       <c r="X27" t="n">
-        <v>4.467435771276172</v>
+        <v>4.467435771276001</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.53880746583118</v>
+        <v>141.2137231233804</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273606</v>
+        <v>22.49808989273589</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998589</v>
+        <v>10.89291669998572</v>
       </c>
       <c r="U28" t="n">
-        <v>75.8107826014502</v>
+        <v>75.81078260145003</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625547</v>
+        <v>32.2635365162553</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114089</v>
+        <v>77.46522842114072</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740048096</v>
+        <v>9.073976740047925</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973986</v>
+        <v>4.295794145973815</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2417617096388</v>
+        <v>161.2417617096387</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129843</v>
+        <v>137.3600187129842</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9266809740328</v>
+        <v>124.9266809740327</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6334333934416</v>
+        <v>158.6334333934415</v>
       </c>
       <c r="F29" t="n">
-        <v>190.353770971819</v>
+        <v>190.3537709718189</v>
       </c>
       <c r="G29" t="n">
-        <v>205.980608777416</v>
+        <v>205.9806087774159</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389906</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167444</v>
+        <v>27.69836365167436</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075048</v>
+        <v>14.39611717075039</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380790937</v>
+        <v>9.567498380790852</v>
       </c>
       <c r="U29" t="n">
-        <v>37.3040959830922</v>
+        <v>37.30409598309211</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409575</v>
+        <v>108.0343049409574</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0509851575724</v>
+        <v>125.0509851575723</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9372356265116</v>
+        <v>146.9372356265115</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4400887502554</v>
+        <v>169.4400887502553</v>
       </c>
     </row>
     <row r="30">
@@ -2877,19 +2877,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>137.5112449474278</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>11.64756111693067</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2913,28 +2913,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>2.099381123128019</v>
+        <v>2.099381123127934</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279364</v>
+        <v>24.38216541279355</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80344224720773</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.85910490881707</v>
+        <v>53.85910490881699</v>
       </c>
       <c r="X30" t="n">
-        <v>4.467435771276087</v>
+        <v>4.467435771276001</v>
       </c>
       <c r="Y30" t="n">
         <v>223.3842861340256</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.49808989273598</v>
+        <v>22.49808989273589</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8929166999858</v>
+        <v>10.89291669998572</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145011</v>
+        <v>75.81078260145003</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26353651625539</v>
+        <v>32.2635365162553</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114081</v>
+        <v>77.46522842114072</v>
       </c>
       <c r="X31" t="n">
-        <v>9.07397674004801</v>
+        <v>9.073976740047925</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2957941459739</v>
+        <v>4.295794145973815</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9266809740327</v>
+        <v>124.9266809740328</v>
       </c>
       <c r="E32" t="n">
         <v>158.6334333934416</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3537709718189</v>
+        <v>190.353770971819</v>
       </c>
       <c r="G32" t="n">
         <v>205.980608777416</v>
@@ -3047,7 +3047,7 @@
         <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167441</v>
+        <v>27.69836365167444</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075044</v>
+        <v>14.39611717075047</v>
       </c>
       <c r="T32" t="n">
-        <v>9.567498380790909</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309217</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V32" t="n">
         <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0509851575723</v>
+        <v>125.0509851575724</v>
       </c>
       <c r="X32" t="n">
         <v>146.9372356265116</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4400887502553</v>
+        <v>169.4400887502554</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>147.5965459144162</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3123,7 +3123,7 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3153,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>60.42414077780937</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123127991</v>
+        <v>2.099381123128019</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279361</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V33" t="n">
-        <v>27.8034422472077</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W33" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.467435771276058</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.53880746583107</v>
+        <v>10.5388074658311</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273595</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89291669998578</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145009</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26353651625536</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114078</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X34" t="n">
-        <v>9.073976740047982</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.295794145973872</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C35" t="n">
-        <v>114.5266618777612</v>
+        <v>114.5266618777611</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E35" t="n">
         <v>135.8000765582185</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G35" t="n">
         <v>183.1472519421929</v>
       </c>
       <c r="H35" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451341</v>
+        <v>4.865006816451285</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786909</v>
+        <v>14.47073914786903</v>
       </c>
       <c r="V35" t="n">
-        <v>85.2009481057344</v>
+        <v>85.20094810573434</v>
       </c>
       <c r="W35" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X35" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="36">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>38.03885947308655</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,28 +3387,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>71.47393584239364</v>
+        <v>1.548808577570483</v>
       </c>
       <c r="V36" t="n">
-        <v>4.970085411984627</v>
+        <v>4.97008541198457</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.97742576622701</v>
+        <v>52.97742576622696</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032286</v>
+        <v>9.430179681032229</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591771</v>
+        <v>54.63187158591765</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>138.4084048744157</v>
       </c>
       <c r="C38" t="n">
-        <v>114.5266618777612</v>
+        <v>114.5266618777611</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E38" t="n">
         <v>135.8000765582185</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G38" t="n">
         <v>183.1472519421929</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I38" t="n">
-        <v>4.865006816451341</v>
+        <v>4.865006816451285</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786909</v>
+        <v>14.47073914786903</v>
       </c>
       <c r="V38" t="n">
-        <v>85.2009481057344</v>
+        <v>85.20094810573434</v>
       </c>
       <c r="W38" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X38" t="n">
         <v>124.1038787912885</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="39">
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>89.92894504962906</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3594,7 +3594,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3624,31 +3624,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>1.54880857757054</v>
+        <v>1.548808577570483</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>4.97008541198457</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>47.52921548256209</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.97742576622701</v>
+        <v>52.97742576622696</v>
       </c>
       <c r="V40" t="n">
-        <v>9.430179681032286</v>
+        <v>9.430179681032229</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63187158591771</v>
+        <v>54.63187158591765</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>14.47073914786903</v>
+        <v>14.47073914786904</v>
       </c>
       <c r="V41" t="n">
         <v>85.20094810573434</v>
@@ -3828,7 +3828,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>111.0117967183744</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9448597913225</v>
+        <v>172.6209545367964</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276440809881</v>
+        <v>1.548808577570483</v>
       </c>
       <c r="V42" t="n">
         <v>4.97008541198457</v>
@@ -3882,10 +3882,10 @@
         <v>31.02574807359392</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.4084048744157</v>
+        <v>138.4084048744156</v>
       </c>
       <c r="C44" t="n">
-        <v>114.5266618777612</v>
+        <v>114.5266618777611</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388097</v>
+        <v>102.0933241388095</v>
       </c>
       <c r="E44" t="n">
-        <v>135.8000765582185</v>
+        <v>135.8000765582184</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365959</v>
+        <v>167.5204141365957</v>
       </c>
       <c r="G44" t="n">
-        <v>183.1472519421929</v>
+        <v>183.1472519421928</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037677</v>
+        <v>111.2187923037675</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451341</v>
+        <v>4.865006816451228</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786909</v>
+        <v>14.47073914786898</v>
       </c>
       <c r="V44" t="n">
-        <v>85.2009481057344</v>
+        <v>85.20094810573428</v>
       </c>
       <c r="W44" t="n">
-        <v>102.2176283223493</v>
+        <v>102.2176283223492</v>
       </c>
       <c r="X44" t="n">
-        <v>124.1038787912885</v>
+        <v>124.1038787912884</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.6067319150323</v>
+        <v>146.6067319150322</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4059,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.86424478979233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4107,22 +4107,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>38.03885947308672</v>
       </c>
       <c r="U45" t="n">
-        <v>1.54880857757054</v>
+        <v>1.548808577570426</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359397</v>
+        <v>31.02574807359386</v>
       </c>
       <c r="X45" t="n">
-        <v>114.9200966433261</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.97742576622701</v>
+        <v>52.9774257662269</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032286</v>
+        <v>9.430179681032172</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591771</v>
+        <v>54.63187158591759</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>330.6506435883759</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="C11" t="n">
-        <v>247.153006318584</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="D11" t="n">
-        <v>247.153006318584</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="E11" t="n">
-        <v>163.6553690487921</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="F11" t="n">
-        <v>163.6553690487921</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="G11" t="n">
-        <v>80.15773177900017</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H11" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J11" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K11" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L11" t="n">
-        <v>55.2219687302004</v>
+        <v>55.22196873020039</v>
       </c>
       <c r="M11" t="n">
-        <v>137.0580030183235</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N11" t="n">
-        <v>214.5207806827081</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O11" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P11" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q11" t="n">
-        <v>320.2255419648574</v>
+        <v>320.2255419648569</v>
       </c>
       <c r="R11" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S11" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="T11" t="n">
-        <v>330.6506435883759</v>
+        <v>312.7110548551084</v>
       </c>
       <c r="U11" t="n">
-        <v>330.6506435883759</v>
+        <v>266.7547008669915</v>
       </c>
       <c r="V11" t="n">
-        <v>330.6506435883759</v>
+        <v>183.2570635971997</v>
       </c>
       <c r="W11" t="n">
-        <v>330.6506435883759</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="X11" t="n">
-        <v>330.6506435883759</v>
+        <v>173.6082874113511</v>
       </c>
       <c r="Y11" t="n">
-        <v>330.6506435883759</v>
+        <v>173.6082874113511</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>73.10603286412469</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C12" t="n">
-        <v>73.10603286412469</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D12" t="n">
-        <v>73.10603286412469</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J12" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K12" t="n">
-        <v>6.613012871767519</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="L12" t="n">
-        <v>88.44904715989057</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="M12" t="n">
-        <v>88.44904715989057</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="N12" t="n">
-        <v>166.9785750121299</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O12" t="n">
-        <v>248.8146093002529</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P12" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="R12" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S12" t="n">
-        <v>247.153006318584</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="T12" t="n">
-        <v>236.756970370835</v>
+        <v>247.1530063185837</v>
       </c>
       <c r="U12" t="n">
-        <v>203.8530715042318</v>
+        <v>201.9369797604799</v>
       </c>
       <c r="V12" t="n">
-        <v>167.4933374513518</v>
+        <v>165.5772457075998</v>
       </c>
       <c r="W12" t="n">
-        <v>104.814752225129</v>
+        <v>102.8986604813771</v>
       </c>
       <c r="X12" t="n">
-        <v>92.02674188531117</v>
+        <v>90.1106501415593</v>
       </c>
       <c r="Y12" t="n">
-        <v>73.10603286412469</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>33.37851777446959</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="C13" t="n">
-        <v>71.19216497323745</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="D13" t="n">
-        <v>130.0675975860543</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="E13" t="n">
-        <v>138.8863615492357</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="F13" t="n">
-        <v>138.8863615492357</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="G13" t="n">
-        <v>174.4842176677908</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="H13" t="n">
-        <v>212.9720372855684</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="I13" t="n">
-        <v>212.9720372855684</v>
+        <v>72.94173413324884</v>
       </c>
       <c r="J13" t="n">
-        <v>212.9720372855684</v>
+        <v>72.94173413324884</v>
       </c>
       <c r="K13" t="n">
-        <v>212.9720372855684</v>
+        <v>72.94173413324884</v>
       </c>
       <c r="L13" t="n">
-        <v>212.9720372855684</v>
+        <v>72.94173413324884</v>
       </c>
       <c r="M13" t="n">
-        <v>212.9720372855684</v>
+        <v>72.94173413324884</v>
       </c>
       <c r="N13" t="n">
-        <v>212.9720372855684</v>
+        <v>72.94173413324884</v>
       </c>
       <c r="O13" t="n">
-        <v>212.9720372855684</v>
+        <v>135.8611893730252</v>
       </c>
       <c r="P13" t="n">
-        <v>294.8080715736914</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.8080715736914</v>
+        <v>294.808071573691</v>
       </c>
       <c r="R13" t="n">
-        <v>294.8080715736914</v>
+        <v>294.808071573691</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930047</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767128</v>
+        <v>244.5288841767125</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069209</v>
+        <v>161.0312469069207</v>
       </c>
       <c r="V13" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277299</v>
       </c>
       <c r="W13" t="n">
-        <v>36.66872985793817</v>
+        <v>36.6687298579381</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249218</v>
+        <v>19.22764783249215</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>206.3964361349189</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="C14" t="n">
-        <v>206.3964361349189</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="D14" t="n">
-        <v>126.3642441989513</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="E14" t="n">
-        <v>126.3642441989513</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="F14" t="n">
-        <v>126.3642441989513</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915942</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915942</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J14" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K14" t="n">
-        <v>6.613012871767519</v>
+        <v>76.08122853900261</v>
       </c>
       <c r="L14" t="n">
-        <v>55.2219687302004</v>
+        <v>124.6901843974355</v>
       </c>
       <c r="M14" t="n">
-        <v>137.0580030183235</v>
+        <v>206.5262186855584</v>
       </c>
       <c r="N14" t="n">
-        <v>214.5207806827081</v>
+        <v>283.988996349943</v>
       </c>
       <c r="O14" t="n">
-        <v>250.757326297622</v>
+        <v>320.2255419648569</v>
       </c>
       <c r="P14" t="n">
-        <v>250.757326297622</v>
+        <v>320.2255419648569</v>
       </c>
       <c r="Q14" t="n">
-        <v>320.2255419648574</v>
+        <v>320.2255419648569</v>
       </c>
       <c r="R14" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="S14" t="n">
-        <v>307.833662137978</v>
+        <v>307.8336621379775</v>
       </c>
       <c r="T14" t="n">
-        <v>289.8940734047108</v>
+        <v>289.8940734047104</v>
       </c>
       <c r="U14" t="n">
-        <v>289.8940734047108</v>
+        <v>243.9377194165936</v>
       </c>
       <c r="V14" t="n">
-        <v>206.3964361349189</v>
+        <v>209.8618814687431</v>
       </c>
       <c r="W14" t="n">
-        <v>206.3964361349189</v>
+        <v>126.3642441989514</v>
       </c>
       <c r="X14" t="n">
-        <v>206.3964361349189</v>
+        <v>42.86660692915956</v>
       </c>
       <c r="Y14" t="n">
-        <v>206.3964361349189</v>
+        <v>42.86660692915956</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>156.6036701339166</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="C15" t="n">
-        <v>156.6036701339166</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="D15" t="n">
-        <v>156.6036701339166</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="E15" t="n">
-        <v>156.6036701339166</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="F15" t="n">
-        <v>90.11065014155943</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="G15" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="H15" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="I15" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="J15" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K15" t="n">
-        <v>45.61006634330798</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L15" t="n">
-        <v>45.61006634330798</v>
+        <v>88.44904715989044</v>
       </c>
       <c r="M15" t="n">
-        <v>85.14254072400681</v>
+        <v>88.44904715989044</v>
       </c>
       <c r="N15" t="n">
-        <v>166.9785750121299</v>
+        <v>170.2850814480134</v>
       </c>
       <c r="O15" t="n">
-        <v>248.8146093002529</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P15" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q15" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="R15" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="S15" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="T15" t="n">
-        <v>320.2546076406269</v>
+        <v>241.0479198710661</v>
       </c>
       <c r="U15" t="n">
-        <v>287.3507087740237</v>
+        <v>189.7481775621698</v>
       </c>
       <c r="V15" t="n">
-        <v>250.9909747211437</v>
+        <v>153.3884435092898</v>
       </c>
       <c r="W15" t="n">
-        <v>188.3123894949208</v>
+        <v>90.70985828306701</v>
       </c>
       <c r="X15" t="n">
-        <v>175.524379155103</v>
+        <v>77.92184794324925</v>
       </c>
       <c r="Y15" t="n">
-        <v>156.6036701339166</v>
+        <v>59.0011389220628</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.37851777446959</v>
+        <v>33.37851777446961</v>
       </c>
       <c r="C16" t="n">
-        <v>33.37851777446959</v>
+        <v>71.19216497323751</v>
       </c>
       <c r="D16" t="n">
-        <v>72.74232184347571</v>
+        <v>130.0675975860544</v>
       </c>
       <c r="E16" t="n">
-        <v>72.74232184347571</v>
+        <v>192.4144741469722</v>
       </c>
       <c r="F16" t="n">
-        <v>137.810964808234</v>
+        <v>192.4144741469722</v>
       </c>
       <c r="G16" t="n">
-        <v>173.4088209267892</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="H16" t="n">
-        <v>173.4088209267892</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="I16" t="n">
-        <v>212.9720372855684</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="J16" t="n">
-        <v>212.9720372855684</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="K16" t="n">
-        <v>212.9720372855684</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="L16" t="n">
-        <v>212.9720372855684</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="M16" t="n">
-        <v>294.8080715736914</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="N16" t="n">
-        <v>294.8080715736914</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="O16" t="n">
-        <v>294.8080715736914</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="P16" t="n">
-        <v>294.8080715736914</v>
+        <v>217.6972236611481</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.808071573691</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736914</v>
+        <v>294.808071573691</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930051</v>
+        <v>263.8072792930047</v>
       </c>
       <c r="T16" t="n">
-        <v>244.5288841767128</v>
+        <v>244.5288841767125</v>
       </c>
       <c r="U16" t="n">
-        <v>161.0312469069209</v>
+        <v>161.0312469069207</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1663671277301</v>
+        <v>120.1663671277299</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793817</v>
+        <v>36.6687298579381</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249218</v>
+        <v>19.22764783249215</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371738</v>
+        <v>220.1473307371737</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051917</v>
+        <v>205.9634208051916</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822516</v>
+        <v>204.3384378822515</v>
       </c>
       <c r="E17" t="n">
         <v>168.6662302932419</v>
@@ -5504,61 +5504,61 @@
         <v>100.9532776755682</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577632</v>
+        <v>17.45564040577625</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K17" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L17" t="n">
-        <v>55.2219687302004</v>
+        <v>55.22196873020039</v>
       </c>
       <c r="M17" t="n">
-        <v>137.0580030183235</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N17" t="n">
-        <v>214.5207806827081</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O17" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P17" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="R17" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="S17" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="T17" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="U17" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="V17" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840827</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737898</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930494</v>
+        <v>258.4542133930491</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>257.1059246811433</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="C18" t="n">
-        <v>257.1059246811433</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="D18" t="n">
-        <v>257.1059246811433</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="E18" t="n">
-        <v>257.1059246811433</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="F18" t="n">
-        <v>173.6082874113513</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="G18" t="n">
-        <v>90.11065014155943</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="H18" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="I18" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="J18" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K18" t="n">
-        <v>6.613012871767519</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="L18" t="n">
-        <v>6.613012871767519</v>
+        <v>127.4461006314309</v>
       </c>
       <c r="M18" t="n">
-        <v>85.14254072400681</v>
+        <v>209.2821349195538</v>
       </c>
       <c r="N18" t="n">
-        <v>166.9785750121299</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="O18" t="n">
-        <v>248.8146093002529</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P18" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q18" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="R18" t="n">
-        <v>330.6506435883759</v>
+        <v>309.4940507314382</v>
       </c>
       <c r="S18" t="n">
-        <v>330.6506435883759</v>
+        <v>309.4940507314382</v>
       </c>
       <c r="T18" t="n">
-        <v>330.6506435883759</v>
+        <v>309.4940507314382</v>
       </c>
       <c r="U18" t="n">
-        <v>330.6506435883759</v>
+        <v>309.4940507314382</v>
       </c>
       <c r="V18" t="n">
-        <v>257.1059246811433</v>
+        <v>309.4940507314382</v>
       </c>
       <c r="W18" t="n">
-        <v>257.1059246811433</v>
+        <v>225.9964134616464</v>
       </c>
       <c r="X18" t="n">
-        <v>257.1059246811433</v>
+        <v>142.4987761918546</v>
       </c>
       <c r="Y18" t="n">
-        <v>257.1059246811433</v>
+        <v>59.0011389220628</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.1473307371739</v>
+        <v>220.1473307371737</v>
       </c>
       <c r="C20" t="n">
-        <v>205.9634208051918</v>
+        <v>205.9634208051916</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822516</v>
+        <v>204.3384378822515</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932419</v>
+        <v>168.6662302932418</v>
       </c>
       <c r="F20" t="n">
         <v>100.9532776755682</v>
       </c>
       <c r="G20" t="n">
-        <v>17.4556404057763</v>
+        <v>17.45564040577623</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J20" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K20" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L20" t="n">
-        <v>55.2219687302004</v>
+        <v>55.22196873020039</v>
       </c>
       <c r="M20" t="n">
-        <v>137.0580030183235</v>
+        <v>137.0580030183233</v>
       </c>
       <c r="N20" t="n">
-        <v>214.5207806827081</v>
+        <v>214.5207806827079</v>
       </c>
       <c r="O20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="P20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="R20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="S20" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="T20" t="n">
-        <v>330.6506435883759</v>
+        <v>250.7573262976218</v>
       </c>
       <c r="U20" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="V20" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="W20" t="n">
-        <v>328.9001008840827</v>
+        <v>328.9001008840823</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737902</v>
+        <v>305.0422344737898</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.4542133930494</v>
+        <v>258.4542133930491</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
       <c r="C21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
       <c r="D21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
       <c r="E21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
       <c r="F21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
       <c r="G21" t="n">
-        <v>80.15773177900022</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="H21" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="I21" t="n">
-        <v>6.613012871767519</v>
+        <v>59.0011389220628</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K21" t="n">
-        <v>45.61006634330798</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="L21" t="n">
-        <v>85.14254072400681</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="M21" t="n">
-        <v>85.14254072400681</v>
+        <v>85.14254072400669</v>
       </c>
       <c r="N21" t="n">
-        <v>166.9785750121299</v>
+        <v>166.9785750121296</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8146093002529</v>
+        <v>248.8146093002526</v>
       </c>
       <c r="P21" t="n">
-        <v>330.6506435883759</v>
+        <v>330.6506435883755</v>
       </c>
       <c r="Q21" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="R21" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="S21" t="n">
-        <v>247.153006318584</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="T21" t="n">
-        <v>247.153006318584</v>
+        <v>324.5455571408579</v>
       </c>
       <c r="U21" t="n">
-        <v>247.153006318584</v>
+        <v>241.0479198710661</v>
       </c>
       <c r="V21" t="n">
-        <v>247.153006318584</v>
+        <v>241.0479198710661</v>
       </c>
       <c r="W21" t="n">
-        <v>163.6553690487921</v>
+        <v>157.5502826012743</v>
       </c>
       <c r="X21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
       <c r="Y21" t="n">
-        <v>80.15773177900022</v>
+        <v>74.05264533148247</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767519</v>
+        <v>6.61301287176751</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220.147330737174</v>
+        <v>220.1473307371739</v>
       </c>
       <c r="C23" t="n">
         <v>205.9634208051918</v>
       </c>
       <c r="D23" t="n">
-        <v>204.3384378822518</v>
+        <v>204.338437882252</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932421</v>
+        <v>168.6662302932425</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755684</v>
+        <v>100.9532776755689</v>
       </c>
       <c r="G23" t="n">
-        <v>17.4556404057763</v>
+        <v>17.45564040577624</v>
       </c>
       <c r="H23" t="n">
         <v>6.613012871767519</v>
@@ -6017,22 +6017,22 @@
         <v>250.757326297622</v>
       </c>
       <c r="T23" t="n">
-        <v>250.757326297622</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U23" t="n">
-        <v>330.6506435883759</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V23" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840828</v>
+        <v>328.9001008840826</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0422344737904</v>
+        <v>305.0422344737901</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4542133930495</v>
+        <v>258.4542133930494</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>173.6082874113513</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="C24" t="n">
-        <v>173.6082874113513</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="D24" t="n">
-        <v>173.6082874113513</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="E24" t="n">
-        <v>173.6082874113513</v>
+        <v>241.0479198710664</v>
       </c>
       <c r="F24" t="n">
-        <v>90.11065014155943</v>
+        <v>157.5502826012745</v>
       </c>
       <c r="G24" t="n">
-        <v>6.613012871767519</v>
+        <v>142.4987761918547</v>
       </c>
       <c r="H24" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="I24" t="n">
-        <v>6.613012871767519</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="J24" t="n">
         <v>6.613012871767519</v>
@@ -6072,46 +6072,46 @@
         <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
-        <v>6.613012871767519</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M24" t="n">
-        <v>88.44904715989057</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N24" t="n">
-        <v>166.9785750121299</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="O24" t="n">
-        <v>248.8146093002529</v>
+        <v>252.1211157361367</v>
       </c>
       <c r="P24" t="n">
         <v>330.6506435883759</v>
       </c>
       <c r="Q24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="R24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="S24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="T24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="U24" t="n">
-        <v>330.6506435883759</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="V24" t="n">
-        <v>257.1059246811433</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="W24" t="n">
-        <v>257.1059246811433</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="X24" t="n">
-        <v>257.1059246811433</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="Y24" t="n">
-        <v>257.1059246811433</v>
+        <v>324.5455571408583</v>
       </c>
     </row>
     <row r="25">
@@ -6200,40 +6200,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1024.989143861833</v>
+        <v>1024.989143861832</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123535</v>
+        <v>886.2416502123533</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719163</v>
+        <v>760.0530835719162</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654095</v>
+        <v>599.8172922654096</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5407559302387</v>
+        <v>407.540755930239</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429506</v>
+        <v>199.4795349429502</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144466</v>
+        <v>64.07332369144447</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8138854154935</v>
+        <v>171.8138854154937</v>
       </c>
       <c r="K26" t="n">
-        <v>377.39293892921</v>
+        <v>377.3929389292103</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691553</v>
+        <v>636.7189186691559</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707759</v>
+        <v>930.3987315707767</v>
       </c>
       <c r="N26" t="n">
         <v>1218.578533116673</v>
@@ -6248,22 +6248,22 @@
         <v>1786.223060293144</v>
       </c>
       <c r="R26" t="n">
-        <v>1804.758929437156</v>
+        <v>1804.758929437155</v>
       </c>
       <c r="S26" t="n">
         <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.553257162872</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U26" t="n">
-        <v>1742.872352129445</v>
+        <v>1742.872352129444</v>
       </c>
       <c r="V26" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583022</v>
       </c>
       <c r="W26" t="n">
-        <v>1507.432665161233</v>
+        <v>1507.432665161232</v>
       </c>
       <c r="X26" t="n">
         <v>1359.011215033443</v>
@@ -6279,40 +6279,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.2782206943266</v>
+        <v>409.6911371607625</v>
       </c>
       <c r="C27" t="n">
-        <v>313.2782206943266</v>
+        <v>409.6911371607625</v>
       </c>
       <c r="D27" t="n">
-        <v>313.2782206943266</v>
+        <v>248.9110209217943</v>
       </c>
       <c r="E27" t="n">
-        <v>313.2782206943266</v>
+        <v>248.9110209217943</v>
       </c>
       <c r="F27" t="n">
-        <v>313.2782206943266</v>
+        <v>88.48330463903839</v>
       </c>
       <c r="G27" t="n">
-        <v>163.0376771054983</v>
+        <v>88.48330463903839</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09517858874312</v>
+        <v>88.48330463903839</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09517858874312</v>
+        <v>88.48330463903839</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="K27" t="n">
-        <v>75.09223206028358</v>
+        <v>75.09223206028355</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8151253226842</v>
+        <v>193.8151253226841</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1138061802541</v>
+        <v>377.113806180254</v>
       </c>
       <c r="N27" t="n">
         <v>583.683747264756</v>
@@ -6327,28 +6327,28 @@
         <v>801.7553535343916</v>
       </c>
       <c r="R27" t="n">
-        <v>801.7553535343916</v>
+        <v>666.0802811876337</v>
       </c>
       <c r="S27" t="n">
-        <v>801.7553535343916</v>
+        <v>666.0802811876337</v>
       </c>
       <c r="T27" t="n">
-        <v>650.5473464257615</v>
+        <v>663.9596941945751</v>
       </c>
       <c r="U27" t="n">
-        <v>625.9188965138486</v>
+        <v>639.3312442826625</v>
       </c>
       <c r="V27" t="n">
-        <v>382.8391784174827</v>
+        <v>611.246959184473</v>
       </c>
       <c r="W27" t="n">
-        <v>328.4360421459502</v>
+        <v>556.8438229129407</v>
       </c>
       <c r="X27" t="n">
-        <v>323.9234807608227</v>
+        <v>552.3312615278135</v>
       </c>
       <c r="Y27" t="n">
-        <v>313.2782206943266</v>
+        <v>409.6911371607625</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09517858874312</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="K28" t="n">
-        <v>75.55861596032554</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="L28" t="n">
-        <v>75.55861596032554</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="M28" t="n">
-        <v>75.55861596032554</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="N28" t="n">
-        <v>270.7419715358043</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7419715358043</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7419715358043</v>
+        <v>185.520356102768</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358043</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358043</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0166282098083</v>
+        <v>248.0166282098072</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482064</v>
+        <v>237.0136820482055</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659335</v>
+        <v>160.4371339659328</v>
       </c>
       <c r="V28" t="n">
-        <v>127.847703141433</v>
+        <v>127.8477031414325</v>
       </c>
       <c r="W28" t="n">
-        <v>49.5999976655331</v>
+        <v>49.59999766553274</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477745</v>
+        <v>40.43436459477726</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09517858874312</v>
+        <v>36.0951785887431</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123535</v>
+        <v>886.2416502123541</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719164</v>
+        <v>760.053083571917</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654097</v>
+        <v>599.8172922654104</v>
       </c>
       <c r="F29" t="n">
-        <v>407.540755930239</v>
+        <v>407.5407559302398</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429501</v>
+        <v>199.479534942951</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144457</v>
+        <v>64.07332369144449</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8138854154936</v>
+        <v>171.8138854154937</v>
       </c>
       <c r="K29" t="n">
-        <v>377.3929389292106</v>
+        <v>377.3929389292103</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7189186691561</v>
+        <v>636.718918669156</v>
       </c>
       <c r="M29" t="n">
         <v>930.3987315707768</v>
@@ -6482,10 +6482,10 @@
         <v>1663.028607199425</v>
       </c>
       <c r="Q29" t="n">
-        <v>1786.223060293145</v>
+        <v>1786.223060293146</v>
       </c>
       <c r="R29" t="n">
-        <v>1804.758929437156</v>
+        <v>1804.758929437155</v>
       </c>
       <c r="S29" t="n">
         <v>1790.217396941448</v>
@@ -6506,7 +6506,7 @@
         <v>1359.011215033443</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.859610235205</v>
+        <v>1187.859610235206</v>
       </c>
     </row>
     <row r="30">
@@ -6516,40 +6516,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>462.3656408098985</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="C30" t="n">
-        <v>462.3656408098985</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="D30" t="n">
-        <v>462.3656408098985</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="E30" t="n">
-        <v>323.4653933882543</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="F30" t="n">
-        <v>163.0376771054983</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="G30" t="n">
-        <v>163.0376771054983</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09517858874312</v>
+        <v>47.86039183816803</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="K30" t="n">
-        <v>75.09223206028358</v>
+        <v>75.09223206028356</v>
       </c>
       <c r="L30" t="n">
-        <v>193.8151253226842</v>
+        <v>193.8151253226841</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1138061802541</v>
+        <v>377.113806180254</v>
       </c>
       <c r="N30" t="n">
         <v>583.683747264756</v>
@@ -6561,31 +6561,31 @@
         <v>801.7553535343916</v>
       </c>
       <c r="Q30" t="n">
-        <v>801.7553535343916</v>
+        <v>795.6502670868739</v>
       </c>
       <c r="R30" t="n">
-        <v>801.7553535343916</v>
+        <v>795.6502670868739</v>
       </c>
       <c r="S30" t="n">
-        <v>801.7553535343916</v>
+        <v>602.2455375608371</v>
       </c>
       <c r="T30" t="n">
-        <v>799.634766541333</v>
+        <v>600.1249505677786</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0063166294202</v>
+        <v>575.4965006558659</v>
       </c>
       <c r="V30" t="n">
-        <v>746.9220315312306</v>
+        <v>332.4167825595</v>
       </c>
       <c r="W30" t="n">
-        <v>692.5188952596982</v>
+        <v>278.0136462879677</v>
       </c>
       <c r="X30" t="n">
-        <v>688.0063338745708</v>
+        <v>273.5010849028404</v>
       </c>
       <c r="Y30" t="n">
-        <v>462.3656408098985</v>
+        <v>47.86039183816803</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70.97145101193728</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I31" t="n">
-        <v>91.05732881465229</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J31" t="n">
-        <v>91.05732881465229</v>
+        <v>128.1544332970598</v>
       </c>
       <c r="K31" t="n">
-        <v>91.05732881465229</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="L31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="M31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="N31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0166282098078</v>
+        <v>248.0166282098073</v>
       </c>
       <c r="T31" t="n">
-        <v>237.013682048206</v>
+        <v>237.0136820482056</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659331</v>
+        <v>160.4371339659328</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414327</v>
+        <v>127.8477031414325</v>
       </c>
       <c r="W31" t="n">
-        <v>49.59999766553293</v>
+        <v>49.59999766553275</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477736</v>
+        <v>40.43436459477726</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123543</v>
+        <v>886.2416502123539</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0530835719172</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654105</v>
+        <v>599.8172922654101</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302399</v>
+        <v>407.5407559302394</v>
       </c>
       <c r="G32" t="n">
-        <v>199.479534942951</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144524</v>
+        <v>64.07332369144461</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8138854154936</v>
+        <v>171.8138854154935</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292102</v>
+        <v>377.3929389292101</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7189186691558</v>
+        <v>636.7189186691555</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707768</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O32" t="n">
         <v>1465.5321026131</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.223060293145</v>
       </c>
       <c r="R32" t="n">
-        <v>1804.758929437156</v>
+        <v>1804.758929437155</v>
       </c>
       <c r="S32" t="n">
         <v>1790.217396941448</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.553257162872</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U32" t="n">
         <v>1742.872352129445</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.746791583024</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W32" t="n">
         <v>1507.432665161233</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.011215033444</v>
+        <v>1359.011215033443</v>
       </c>
       <c r="Y32" t="n">
-        <v>1187.859610235206</v>
+        <v>1187.859610235205</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6753,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>313.2782206943266</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="C33" t="n">
-        <v>313.2782206943266</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="D33" t="n">
-        <v>313.2782206943266</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="E33" t="n">
-        <v>313.2782206943266</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="F33" t="n">
-        <v>313.2782206943266</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="G33" t="n">
-        <v>163.0376771054983</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="K33" t="n">
-        <v>75.09223206028358</v>
+        <v>75.09223206028356</v>
       </c>
       <c r="L33" t="n">
-        <v>193.8151253226842</v>
+        <v>193.8151253226841</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1138061802541</v>
+        <v>377.113806180254</v>
       </c>
       <c r="N33" t="n">
         <v>583.683747264756</v>
@@ -6801,28 +6801,28 @@
         <v>801.7553535343916</v>
       </c>
       <c r="R33" t="n">
-        <v>801.7553535343916</v>
+        <v>740.7208679002407</v>
       </c>
       <c r="S33" t="n">
-        <v>801.7553535343916</v>
+        <v>740.7208679002407</v>
       </c>
       <c r="T33" t="n">
-        <v>799.634766541333</v>
+        <v>738.6002809071821</v>
       </c>
       <c r="U33" t="n">
-        <v>775.0063166294202</v>
+        <v>713.9718309952693</v>
       </c>
       <c r="V33" t="n">
-        <v>746.9220315312306</v>
+        <v>685.8875458970797</v>
       </c>
       <c r="W33" t="n">
-        <v>477.5234622615219</v>
+        <v>416.488976627371</v>
       </c>
       <c r="X33" t="n">
-        <v>473.0109008763945</v>
+        <v>196.9809822440674</v>
       </c>
       <c r="Y33" t="n">
-        <v>462.3656408098985</v>
+        <v>186.3357221775713</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09517858874312</v>
+        <v>70.97145101193726</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09517858874312</v>
+        <v>116.8958657311972</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09517858874312</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09517858874312</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09517858874312</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="G34" t="n">
-        <v>79.80380222779038</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="H34" t="n">
-        <v>79.80380222779038</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="I34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="J34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="K34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="L34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="M34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="N34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="O34" t="n">
-        <v>127.4777861070617</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7419715358035</v>
+        <v>175.9576768329192</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7419715358035</v>
+        <v>261.1792922659541</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358035</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098076</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0136820482059</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U34" t="n">
-        <v>160.437133965933</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8477031414326</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W34" t="n">
-        <v>49.59999766553288</v>
+        <v>49.59999766553292</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477734</v>
+        <v>40.43436459477735</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09517858874312</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="35">
@@ -6911,58 +6911,58 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>856.9281533672752</v>
+        <v>856.9281533672756</v>
       </c>
       <c r="C35" t="n">
-        <v>741.2446565210516</v>
+        <v>741.244656521052</v>
       </c>
       <c r="D35" t="n">
-        <v>638.1200866838701</v>
+        <v>638.1200866838706</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806191</v>
+        <v>500.9482921806195</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487041</v>
+        <v>331.7357526487045</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646708</v>
+        <v>146.7385284646713</v>
       </c>
       <c r="H35" t="n">
-        <v>34.3963140164214</v>
+        <v>34.39631401642134</v>
       </c>
       <c r="I35" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J35" t="n">
-        <v>105.4810828512022</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K35" t="n">
-        <v>333.6651596317897</v>
+        <v>187.805895810597</v>
       </c>
       <c r="L35" t="n">
-        <v>615.596162638606</v>
+        <v>236.4148516690299</v>
       </c>
       <c r="M35" t="n">
-        <v>698.5589516587141</v>
+        <v>552.6996878375215</v>
       </c>
       <c r="N35" t="n">
-        <v>776.0217293230987</v>
+        <v>863.4845126502896</v>
       </c>
       <c r="O35" t="n">
-        <v>1045.580322086396</v>
+        <v>1133.043105413587</v>
       </c>
       <c r="P35" t="n">
-        <v>1265.681849939591</v>
+        <v>1353.144633266782</v>
       </c>
       <c r="Q35" t="n">
-        <v>1411.481326300183</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="R35" t="n">
-        <v>1452.622218711064</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="S35" t="n">
-        <v>1460.975085978892</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="T35" t="n">
         <v>1474.10828584878</v>
@@ -6977,10 +6977,10 @@
         <v>1270.179684256908</v>
       </c>
       <c r="X35" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932375</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.734622937392</v>
+        <v>996.7346229373926</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="C36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="D36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="E36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="F36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="G36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="H36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="I36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
       <c r="J36" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K36" t="n">
         <v>68.47921918851605</v>
@@ -7035,31 +7035,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q36" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R36" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="S36" t="n">
-        <v>601.7376111365872</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="T36" t="n">
-        <v>601.7376111365872</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="U36" t="n">
-        <v>529.5417163462906</v>
+        <v>787.4728011064493</v>
       </c>
       <c r="V36" t="n">
-        <v>524.5214280513567</v>
+        <v>782.4525128115154</v>
       </c>
       <c r="W36" t="n">
-        <v>255.1228587816479</v>
+        <v>513.0539435418067</v>
       </c>
       <c r="X36" t="n">
-        <v>255.1228587816479</v>
+        <v>293.545949158503</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.4821657169756</v>
+        <v>67.9052560938307</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="C37" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="E37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="F37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="G37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="H37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="I37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="J37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="K37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="L37" t="n">
-        <v>29.4821657169756</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="M37" t="n">
-        <v>147.7038596898817</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="N37" t="n">
-        <v>147.7038596898817</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="O37" t="n">
-        <v>147.7038596898817</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="P37" t="n">
-        <v>147.7038596898817</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7038596898817</v>
+        <v>119.0733891171555</v>
       </c>
       <c r="R37" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086448</v>
+        <v>94.19130841086437</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961974</v>
+        <v>84.66587438961969</v>
       </c>
       <c r="W37" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="X37" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697559</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672754</v>
+        <v>856.9281533672744</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210519</v>
+        <v>741.2446565210511</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838703</v>
+        <v>638.1200866838697</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806191</v>
+        <v>500.9482921806186</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7357526487041</v>
+        <v>331.7357526487037</v>
       </c>
       <c r="G38" t="n">
         <v>146.7385284646708</v>
       </c>
       <c r="H38" t="n">
-        <v>34.3963140164214</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I38" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J38" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K38" t="n">
-        <v>415.9899725911844</v>
+        <v>415.9899725911845</v>
       </c>
       <c r="L38" t="n">
-        <v>697.9209755980007</v>
+        <v>697.920975598001</v>
       </c>
       <c r="M38" t="n">
-        <v>780.8837646181089</v>
+        <v>1014.205811766493</v>
       </c>
       <c r="N38" t="n">
-        <v>996.1232571762939</v>
+        <v>1091.668589430877</v>
       </c>
       <c r="O38" t="n">
-        <v>1265.681849939591</v>
+        <v>1127.905135045791</v>
       </c>
       <c r="P38" t="n">
-        <v>1265.681849939591</v>
+        <v>1265.681849939589</v>
       </c>
       <c r="Q38" t="n">
-        <v>1411.481326300183</v>
+        <v>1411.481326300181</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.622218711064</v>
+        <v>1452.622218711062</v>
       </c>
       <c r="S38" t="n">
-        <v>1460.975085978892</v>
+        <v>1460.975085978891</v>
       </c>
       <c r="T38" t="n">
-        <v>1474.10828584878</v>
+        <v>1474.108285848778</v>
       </c>
       <c r="U38" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.491377618608</v>
       </c>
       <c r="V38" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875442</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256907</v>
       </c>
       <c r="X38" t="n">
-        <v>1144.822230932374</v>
+        <v>1144.822230932373</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.7346229373923</v>
+        <v>996.7346229373912</v>
       </c>
     </row>
     <row r="39">
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>190.2622819559438</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="C39" t="n">
-        <v>190.2622819559438</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="D39" t="n">
-        <v>29.4821657169756</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="E39" t="n">
-        <v>29.4821657169756</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="F39" t="n">
-        <v>29.4821657169756</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="G39" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="H39" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="I39" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J39" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="K39" t="n">
-        <v>68.47921918851605</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L39" t="n">
         <v>187.2021124509166</v>
@@ -7272,31 +7272,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R39" t="n">
-        <v>795.1423406626241</v>
+        <v>653.3621818683484</v>
       </c>
       <c r="S39" t="n">
-        <v>795.1423406626241</v>
+        <v>459.9574523423116</v>
       </c>
       <c r="T39" t="n">
-        <v>795.1423406626241</v>
+        <v>459.9574523423116</v>
       </c>
       <c r="U39" t="n">
-        <v>793.577887553967</v>
+        <v>458.3929992336546</v>
       </c>
       <c r="V39" t="n">
-        <v>550.4981694576011</v>
+        <v>453.3727109387207</v>
       </c>
       <c r="W39" t="n">
-        <v>281.0996001878924</v>
+        <v>405.3634023704761</v>
       </c>
       <c r="X39" t="n">
-        <v>281.0996001878924</v>
+        <v>405.3634023704761</v>
       </c>
       <c r="Y39" t="n">
-        <v>281.0996001878924</v>
+        <v>179.7227093058038</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="C40" t="n">
-        <v>77.42485254373949</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="D40" t="n">
-        <v>77.42485254373949</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="E40" t="n">
-        <v>77.42485254373949</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="F40" t="n">
-        <v>77.42485254373949</v>
+        <v>81.39021278396332</v>
       </c>
       <c r="G40" t="n">
-        <v>77.42485254373949</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="H40" t="n">
-        <v>77.42485254373949</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="I40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="J40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="K40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="L40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="M40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="N40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="O40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="P40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="U40" t="n">
-        <v>94.19130841086448</v>
+        <v>94.19130841086434</v>
       </c>
       <c r="V40" t="n">
-        <v>84.66587438961974</v>
+        <v>84.66587438961966</v>
       </c>
       <c r="W40" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="X40" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672759</v>
+        <v>856.9281533672745</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210523</v>
+        <v>741.244656521051</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838709</v>
+        <v>638.1200866838695</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806199</v>
+        <v>500.9482921806185</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487049</v>
+        <v>331.7357526487035</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646703</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642134</v>
+        <v>34.39631401642131</v>
       </c>
       <c r="I41" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J41" t="n">
-        <v>29.4821657169756</v>
+        <v>187.805895810597</v>
       </c>
       <c r="K41" t="n">
-        <v>257.6662424975631</v>
+        <v>333.6651596317875</v>
       </c>
       <c r="L41" t="n">
-        <v>306.2751983559959</v>
+        <v>615.5961626386039</v>
       </c>
       <c r="M41" t="n">
-        <v>622.5600345244876</v>
+        <v>698.5589516587121</v>
       </c>
       <c r="N41" t="n">
-        <v>933.3448593372557</v>
+        <v>776.0217293230967</v>
       </c>
       <c r="O41" t="n">
-        <v>1045.580322086396</v>
+        <v>1045.580322086394</v>
       </c>
       <c r="P41" t="n">
-        <v>1265.681849939591</v>
+        <v>1265.681849939589</v>
       </c>
       <c r="Q41" t="n">
-        <v>1411.481326300182</v>
+        <v>1411.481326300181</v>
       </c>
       <c r="R41" t="n">
-        <v>1452.622218711064</v>
+        <v>1452.622218711062</v>
       </c>
       <c r="S41" t="n">
-        <v>1460.975085978892</v>
+        <v>1460.975085978891</v>
       </c>
       <c r="T41" t="n">
-        <v>1474.10828584878</v>
+        <v>1474.108285848778</v>
       </c>
       <c r="U41" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.491377618608</v>
       </c>
       <c r="V41" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875442</v>
       </c>
       <c r="W41" t="n">
-        <v>1270.179684256908</v>
+        <v>1270.179684256907</v>
       </c>
       <c r="X41" t="n">
-        <v>1144.822230932375</v>
+        <v>1144.822230932373</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373926</v>
+        <v>996.7346229373912</v>
       </c>
     </row>
     <row r="42">
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>189.9098819997315</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="C42" t="n">
-        <v>189.9098819997315</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="D42" t="n">
-        <v>189.9098819997315</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="E42" t="n">
-        <v>189.9098819997315</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="F42" t="n">
-        <v>29.4821657169756</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="G42" t="n">
-        <v>29.4821657169756</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="H42" t="n">
-        <v>29.4821657169756</v>
+        <v>137.7051718005618</v>
       </c>
       <c r="I42" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J42" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="K42" t="n">
-        <v>68.47921918851605</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L42" t="n">
         <v>187.2021124509166</v>
@@ -7515,25 +7515,25 @@
         <v>795.1423406626241</v>
       </c>
       <c r="S42" t="n">
-        <v>683.0092126642661</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="T42" t="n">
-        <v>465.8931926730312</v>
+        <v>620.7777401204055</v>
       </c>
       <c r="U42" t="n">
-        <v>226.2693097629421</v>
+        <v>619.2132870117484</v>
       </c>
       <c r="V42" t="n">
-        <v>221.2490214680082</v>
+        <v>614.1929987168145</v>
       </c>
       <c r="W42" t="n">
-        <v>189.9098819997315</v>
+        <v>582.8538592485378</v>
       </c>
       <c r="X42" t="n">
-        <v>189.9098819997315</v>
+        <v>363.3458648652341</v>
       </c>
       <c r="Y42" t="n">
-        <v>189.9098819997315</v>
+        <v>137.7051718005618</v>
       </c>
     </row>
     <row r="43">
@@ -7543,55 +7543,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="C43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="D43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="E43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="F43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="G43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="H43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="I43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="K43" t="n">
-        <v>115.2042428800987</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="L43" t="n">
-        <v>115.2042428800987</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="M43" t="n">
-        <v>115.2042428800987</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="N43" t="n">
-        <v>115.2042428800987</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="O43" t="n">
-        <v>115.2042428800987</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="P43" t="n">
-        <v>115.2042428800987</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q43" t="n">
-        <v>115.2042428800987</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R43" t="n">
-        <v>147.3719454168192</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S43" t="n">
         <v>147.7038596898815</v>
@@ -7600,19 +7600,19 @@
         <v>147.7038596898815</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086437</v>
+        <v>94.19130841086434</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961969</v>
+        <v>84.66587438961966</v>
       </c>
       <c r="W43" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="X43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.103952011199</v>
+        <v>29.48216571697557</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672759</v>
+        <v>856.9281533672753</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210523</v>
+        <v>741.2446565210519</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838708</v>
+        <v>638.1200866838703</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806194</v>
+        <v>500.948292180619</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487044</v>
+        <v>331.7357526487041</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646712</v>
+        <v>146.7385284646709</v>
       </c>
       <c r="H44" t="n">
-        <v>34.3963140164214</v>
+        <v>34.39631401642126</v>
       </c>
       <c r="I44" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J44" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K44" t="n">
-        <v>415.9899725911844</v>
+        <v>342.0180268996156</v>
       </c>
       <c r="L44" t="n">
-        <v>697.9209755980007</v>
+        <v>390.6269827580485</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.205811766492</v>
+        <v>473.5897717781566</v>
       </c>
       <c r="N44" t="n">
-        <v>1324.99063657926</v>
+        <v>784.3745965909247</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.975085978892</v>
+        <v>1053.933189354222</v>
       </c>
       <c r="P44" t="n">
-        <v>1460.975085978892</v>
+        <v>1274.034717207417</v>
       </c>
       <c r="Q44" t="n">
-        <v>1460.975085978892</v>
+        <v>1419.834193568009</v>
       </c>
       <c r="R44" t="n">
-        <v>1460.975085978892</v>
+        <v>1460.975085978891</v>
       </c>
       <c r="S44" t="n">
-        <v>1460.975085978892</v>
+        <v>1460.975085978891</v>
       </c>
       <c r="T44" t="n">
-        <v>1474.10828584878</v>
+        <v>1474.108285848778</v>
       </c>
       <c r="U44" t="n">
-        <v>1459.491377618609</v>
+        <v>1459.491377618608</v>
       </c>
       <c r="V44" t="n">
-        <v>1373.429813875443</v>
+        <v>1373.429813875442</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.179684256909</v>
+        <v>1270.179684256908</v>
       </c>
       <c r="X44" t="n">
-        <v>1144.822230932375</v>
+        <v>1144.822230932374</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373927</v>
+        <v>996.734622937392</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>403.078124288995</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="C45" t="n">
-        <v>403.078124288995</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="D45" t="n">
-        <v>242.2980080500268</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="E45" t="n">
-        <v>242.2980080500268</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="F45" t="n">
-        <v>81.87029176727088</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="G45" t="n">
-        <v>81.87029176727088</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="H45" t="n">
-        <v>81.87029176727088</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="I45" t="n">
-        <v>81.87029176727088</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J45" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="K45" t="n">
-        <v>68.47921918851605</v>
+        <v>68.47921918851603</v>
       </c>
       <c r="L45" t="n">
         <v>187.2021124509166</v>
@@ -7746,31 +7746,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="R45" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="S45" t="n">
-        <v>795.1423406626241</v>
+        <v>789.0372542151064</v>
       </c>
       <c r="T45" t="n">
-        <v>795.1423406626241</v>
+        <v>750.6141638382511</v>
       </c>
       <c r="U45" t="n">
-        <v>793.577887553967</v>
+        <v>749.0497107295942</v>
       </c>
       <c r="V45" t="n">
-        <v>550.4981694576011</v>
+        <v>505.9699926332282</v>
       </c>
       <c r="W45" t="n">
-        <v>519.1590299893244</v>
+        <v>474.6308531649515</v>
       </c>
       <c r="X45" t="n">
-        <v>403.078124288995</v>
+        <v>255.1228587816479</v>
       </c>
       <c r="Y45" t="n">
-        <v>403.078124288995</v>
+        <v>29.48216571697557</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="C46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="D46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="E46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="F46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="G46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="H46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="I46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="J46" t="n">
-        <v>43.10395201119894</v>
+        <v>144.1464436921632</v>
       </c>
       <c r="K46" t="n">
-        <v>43.10395201119894</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="L46" t="n">
-        <v>43.10395201119894</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="M46" t="n">
-        <v>43.10395201119894</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="N46" t="n">
-        <v>43.10395201119894</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="O46" t="n">
-        <v>43.10395201119894</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="P46" t="n">
-        <v>43.10395201119894</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="Q46" t="n">
-        <v>135.5509096829345</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="R46" t="n">
-        <v>135.5509096829345</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="S46" t="n">
-        <v>135.8828239559967</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898817</v>
+        <v>147.7038596898813</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086448</v>
+        <v>94.19130841086422</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961974</v>
+        <v>84.6658743896196</v>
       </c>
       <c r="W46" t="n">
-        <v>29.4821657169756</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="X46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.10395201119894</v>
+        <v>29.48216571697557</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104411</v>
       </c>
       <c r="N11" t="n">
         <v>283.4008070189657</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9825104815848</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>203.0450902472703</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M12" t="n">
-        <v>116.6266986255859</v>
+        <v>156.558490929322</v>
       </c>
       <c r="N12" t="n">
-        <v>181.2801078349634</v>
+        <v>184.6200133257549</v>
       </c>
       <c r="O12" t="n">
-        <v>203.3156892245184</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P12" t="n">
-        <v>203.3219397723609</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8933,7 +8933,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104411</v>
       </c>
       <c r="N14" t="n">
         <v>283.4008070189657</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>131.9825104815848</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3824293501763</v>
+        <v>203.0450902472702</v>
       </c>
       <c r="M15" t="n">
-        <v>156.5584909293221</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N15" t="n">
-        <v>184.6200133257551</v>
+        <v>184.6200133257549</v>
       </c>
       <c r="O15" t="n">
-        <v>203.3156892245184</v>
+        <v>199.9757837337266</v>
       </c>
       <c r="P15" t="n">
-        <v>203.3219397723609</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9170,7 +9170,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104411</v>
       </c>
       <c r="N17" t="n">
         <v>283.4008070189657</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9825104815848</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3824293501763</v>
+        <v>203.0450902472702</v>
       </c>
       <c r="M18" t="n">
-        <v>195.9494540318883</v>
+        <v>199.2893595226798</v>
       </c>
       <c r="N18" t="n">
-        <v>184.6200133257551</v>
+        <v>141.8891447323972</v>
       </c>
       <c r="O18" t="n">
-        <v>203.3156892245184</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P18" t="n">
-        <v>203.3219397723609</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9407,7 +9407,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>290.1466336104413</v>
+        <v>290.1466336104411</v>
       </c>
       <c r="N20" t="n">
         <v>283.4008070189657</v>
@@ -9483,19 +9483,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>160.3142216539125</v>
+        <v>120.3824293501763</v>
       </c>
       <c r="M21" t="n">
-        <v>116.6266986255859</v>
+        <v>156.558490929322</v>
       </c>
       <c r="N21" t="n">
-        <v>184.6200133257551</v>
+        <v>184.6200133257549</v>
       </c>
       <c r="O21" t="n">
-        <v>203.3156892245184</v>
+        <v>203.3156892245183</v>
       </c>
       <c r="P21" t="n">
-        <v>203.3219397723609</v>
+        <v>203.3219397723608</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9720,19 +9720,19 @@
         <v>131.9825104815848</v>
       </c>
       <c r="L24" t="n">
-        <v>120.3824293501763</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M24" t="n">
         <v>199.2893595226799</v>
       </c>
       <c r="N24" t="n">
-        <v>181.2801078349634</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O24" t="n">
         <v>203.3156892245184</v>
       </c>
       <c r="P24" t="n">
-        <v>203.3219397723609</v>
+        <v>199.9820342815692</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23258,25 +23258,25 @@
         <v>169.4344561747823</v>
       </c>
       <c r="C11" t="n">
-        <v>62.89005228103383</v>
+        <v>145.5527131781278</v>
       </c>
       <c r="D11" t="n">
-        <v>133.1193754391763</v>
+        <v>50.45671454208238</v>
       </c>
       <c r="E11" t="n">
-        <v>84.16346696149117</v>
+        <v>166.8261278585851</v>
       </c>
       <c r="F11" t="n">
-        <v>198.5464654369625</v>
+        <v>198.5464654369624</v>
       </c>
       <c r="G11" t="n">
         <v>131.5106423454656</v>
       </c>
       <c r="H11" t="n">
-        <v>69.43557188597396</v>
+        <v>142.2448436041342</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681796</v>
+        <v>35.89105811681794</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.588811635894</v>
+        <v>22.58881163589397</v>
       </c>
       <c r="T11" t="n">
-        <v>17.76019284593445</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823571</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>116.226999406101</v>
+        <v>33.56433850900711</v>
       </c>
       <c r="W11" t="n">
-        <v>133.2436796227159</v>
+        <v>123.6913911987258</v>
       </c>
       <c r="X11" t="n">
         <v>155.1299300916551</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499648</v>
+        <v>1.340816169499734</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190425</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>145.5527131781278</v>
       </c>
       <c r="D14" t="n">
-        <v>53.88750542256838</v>
+        <v>133.1193754391763</v>
       </c>
       <c r="E14" t="n">
-        <v>166.8261278585852</v>
+        <v>166.8261278585851</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5464654369625</v>
+        <v>198.5464654369624</v>
       </c>
       <c r="G14" t="n">
-        <v>131.5106423454656</v>
+        <v>214.1733032425595</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041343</v>
+        <v>142.2448436041342</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,16 +23549,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823571</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>33.56433850900703</v>
+        <v>82.4919198377291</v>
       </c>
       <c r="W14" t="n">
-        <v>133.2436796227159</v>
+        <v>50.58101872562199</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916551</v>
+        <v>72.46726919456123</v>
       </c>
       <c r="Y14" t="n">
         <v>177.6327832153989</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499648</v>
+        <v>1.340816169499734</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.99526198919034</v>
+        <v>2.995261989190425</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26314,7 +26314,7 @@
         <v>264579.5985529378</v>
       </c>
       <c r="C2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="D2" t="n">
         <v>264579.5985529378</v>
@@ -26326,19 +26326,19 @@
         <v>227997.0267061437</v>
       </c>
       <c r="G2" t="n">
+        <v>265115.5646575607</v>
+      </c>
+      <c r="H2" t="n">
+        <v>265115.5646575607</v>
+      </c>
+      <c r="I2" t="n">
         <v>265115.5646575606</v>
       </c>
-      <c r="H2" t="n">
-        <v>265115.5646575606</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>265115.5646575604</v>
+      </c>
+      <c r="K2" t="n">
         <v>265115.5646575605</v>
-      </c>
-      <c r="J2" t="n">
-        <v>265115.5646575605</v>
-      </c>
-      <c r="K2" t="n">
-        <v>265115.5646575604</v>
       </c>
       <c r="L2" t="n">
         <v>265115.5646575605</v>
@@ -26347,13 +26347,13 @@
         <v>265115.5646575606</v>
       </c>
       <c r="N2" t="n">
-        <v>265115.5646575605</v>
+        <v>265115.5646575608</v>
       </c>
       <c r="O2" t="n">
         <v>265115.5646575607</v>
       </c>
       <c r="P2" t="n">
-        <v>265115.5646575605</v>
+        <v>265115.5646575609</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105208.5138763724</v>
+        <v>105208.5138763725</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,22 +26390,22 @@
         <v>161490.7661438377</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>105208.5138763724</v>
+      </c>
+      <c r="M3" t="n">
+        <v>18266.68546817853</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>65067.86905818321</v>
+      </c>
+      <c r="P3" t="n">
         <v>4.547473508864641e-11</v>
-      </c>
-      <c r="L3" t="n">
-        <v>105208.5138763725</v>
-      </c>
-      <c r="M3" t="n">
-        <v>18266.68546817846</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>65067.86905818315</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,10 +26424,10 @@
         <v>498984.6759847553</v>
       </c>
       <c r="E4" t="n">
+        <v>393609.1285253837</v>
+      </c>
+      <c r="F4" t="n">
         <v>393609.1285253836</v>
-      </c>
-      <c r="F4" t="n">
-        <v>393609.1285253837</v>
       </c>
       <c r="G4" t="n">
         <v>464139.4248418898</v>
@@ -26439,13 +26439,13 @@
         <v>464139.4248418898</v>
       </c>
       <c r="J4" t="n">
-        <v>465554.6357675861</v>
+        <v>465554.6357675862</v>
       </c>
       <c r="K4" t="n">
         <v>465554.6357675862</v>
       </c>
       <c r="L4" t="n">
-        <v>465554.6357675862</v>
+        <v>465554.6357675861</v>
       </c>
       <c r="M4" t="n">
         <v>465183.335866207</v>
@@ -26454,7 +26454,7 @@
         <v>465183.3358662069</v>
       </c>
       <c r="O4" t="n">
-        <v>465183.3358662071</v>
+        <v>465183.335866207</v>
       </c>
       <c r="P4" t="n">
         <v>465183.335866207</v>
@@ -26488,7 +26488,7 @@
         <v>35557.88579942161</v>
       </c>
       <c r="I5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="J5" t="n">
         <v>47597.11518397227</v>
@@ -26497,16 +26497,16 @@
         <v>47597.11518397227</v>
       </c>
       <c r="L5" t="n">
-        <v>47597.11518397227</v>
+        <v>47597.11518397226</v>
       </c>
       <c r="M5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="N5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720931</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720934</v>
+        <v>44490.80287720931</v>
       </c>
       <c r="P5" t="n">
         <v>44490.80287720932</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-268032.6774318175</v>
+        <v>-268037.1438160227</v>
       </c>
       <c r="C6" t="n">
-        <v>-268032.6774318176</v>
+        <v>-268037.1438160227</v>
       </c>
       <c r="D6" t="n">
-        <v>-268032.6774318175</v>
+        <v>-268037.1438160227</v>
       </c>
       <c r="E6" t="n">
-        <v>-462214.1404711874</v>
+        <v>-462523.4616207826</v>
       </c>
       <c r="F6" t="n">
-        <v>-190114.0194273206</v>
+        <v>-190423.3405769157</v>
       </c>
       <c r="G6" t="n">
         <v>-339790.2598601232</v>
       </c>
       <c r="H6" t="n">
-        <v>-234581.7459837508</v>
+        <v>-234581.7459837507</v>
       </c>
       <c r="I6" t="n">
         <v>-234581.7459837508</v>
       </c>
       <c r="J6" t="n">
-        <v>-409526.9524378356</v>
+        <v>-409526.9524378357</v>
       </c>
       <c r="K6" t="n">
-        <v>-248036.1862939981</v>
+        <v>-248036.186293998</v>
       </c>
       <c r="L6" t="n">
-        <v>-353244.7001703705</v>
+        <v>-353244.7001703703</v>
       </c>
       <c r="M6" t="n">
-        <v>-262825.2595540341</v>
+        <v>-262825.2595540343</v>
       </c>
       <c r="N6" t="n">
-        <v>-244558.5740858557</v>
+        <v>-244558.5740858554</v>
       </c>
       <c r="O6" t="n">
-        <v>-309626.4431440389</v>
+        <v>-309626.4431440388</v>
       </c>
       <c r="P6" t="n">
-        <v>-244558.5740858557</v>
+        <v>-244558.5740858555</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>336.1634265485166</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K2" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="L2" t="n">
         <v>212.8454786681945</v>
       </c>
       <c r="M2" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N2" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="O2" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="P2" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="G4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="H4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="I4" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
-        <v>451.189732359289</v>
+        <v>451.1897323592888</v>
       </c>
       <c r="K4" t="n">
-        <v>451.189732359289</v>
+        <v>451.1897323592888</v>
       </c>
       <c r="L4" t="n">
-        <v>451.189732359289</v>
+        <v>451.1897323592888</v>
       </c>
       <c r="M4" t="n">
-        <v>368.527071462195</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="N4" t="n">
-        <v>368.527071462195</v>
+        <v>368.5270714621946</v>
       </c>
       <c r="O4" t="n">
-        <v>368.527071462195</v>
+        <v>368.5270714621946</v>
       </c>
       <c r="P4" t="n">
-        <v>368.527071462195</v>
+        <v>368.5270714621946</v>
       </c>
     </row>
   </sheetData>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272888</v>
+        <v>81.33483632272902</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>131.5106423454655</v>
+      </c>
+      <c r="M2" t="n">
+        <v>22.83335683522316</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81.33483632272902</v>
+      </c>
+      <c r="P2" t="n">
         <v>5.684341886080801e-14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>131.5106423454656</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22.83335683522307</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81.33483632272893</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>368.527071462195</v>
+        <v>368.5270714621948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272888</v>
+        <v>81.33483632272902</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28114,7 +28114,7 @@
         <v>75.75587581289101</v>
       </c>
       <c r="K11" t="n">
-        <v>5.189869058379827</v>
+        <v>5.189869058379834</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28129,10 +28129,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.3540598941296</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.5765519747752</v>
+        <v>158.5765519747748</v>
       </c>
       <c r="R11" t="n">
         <v>204.652784203051</v>
@@ -28175,7 +28175,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>105.9994820473661</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
@@ -28190,7 +28190,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J12" t="n">
-        <v>51.86424478979233</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,19 +28211,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.044035583042469</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R12" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S12" t="n">
-        <v>108.8080213336825</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T12" t="n">
-        <v>204.652784203051</v>
+        <v>132.2821988942287</v>
       </c>
       <c r="U12" t="n">
-        <v>204.652784203051</v>
+        <v>192.4637777884653</v>
       </c>
       <c r="V12" t="n">
         <v>204.652784203051</v>
@@ -28235,7 +28235,7 @@
         <v>204.652784203051</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.652784203051</v>
+        <v>140.7216252369317</v>
       </c>
     </row>
     <row r="13">
@@ -28248,25 +28248,25 @@
         <v>204.652784203051</v>
       </c>
       <c r="C13" t="n">
-        <v>204.652784203051</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>204.652784203051</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>150.5839835992768</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
+        <v>168.695353780268</v>
+      </c>
+      <c r="H13" t="n">
+        <v>165.7761987305484</v>
+      </c>
+      <c r="I13" t="n">
         <v>204.652784203051</v>
-      </c>
-      <c r="H13" t="n">
-        <v>204.652784203051</v>
-      </c>
-      <c r="I13" t="n">
-        <v>164.6899393962033</v>
       </c>
       <c r="J13" t="n">
         <v>119.8563324981777</v>
@@ -28284,13 +28284,13 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O13" t="n">
-        <v>36.71262952723529</v>
+        <v>100.2676348199386</v>
       </c>
       <c r="P13" t="n">
-        <v>140.4855967232443</v>
+        <v>140.4855967232442</v>
       </c>
       <c r="Q13" t="n">
-        <v>126.7630388368461</v>
+        <v>204.652784203051</v>
       </c>
       <c r="R13" t="n">
         <v>203.1862066784475</v>
@@ -28351,7 +28351,7 @@
         <v>75.75587581289101</v>
       </c>
       <c r="K14" t="n">
-        <v>5.189869058379827</v>
+        <v>75.35978387376883</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28366,10 +28366,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.3540598941296</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.5765519747752</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R14" t="n">
         <v>204.652784203051</v>
@@ -28415,10 +28415,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>92.99534932749476</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>66.07547725584595</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H15" t="n">
         <v>125.6730735315877</v>
@@ -28427,7 +28427,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J15" t="n">
-        <v>51.86424478979233</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3183216232903</v>
@@ -28457,10 +28457,10 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.652784203051</v>
+        <v>132.2821988942287</v>
       </c>
       <c r="U15" t="n">
-        <v>204.652784203051</v>
+        <v>186.4408991951809</v>
       </c>
       <c r="V15" t="n">
         <v>204.652784203051</v>
@@ -28485,25 +28485,25 @@
         <v>204.652784203051</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.652784203051</v>
       </c>
       <c r="D16" t="n">
-        <v>184.944068502232</v>
+        <v>204.652784203051</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.652784203051</v>
       </c>
       <c r="F16" t="n">
-        <v>204.652784203051</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>204.652784203051</v>
+        <v>194.2334846026679</v>
       </c>
       <c r="H16" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I16" t="n">
-        <v>204.652784203051</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J16" t="n">
         <v>119.8563324981777</v>
@@ -28515,19 +28515,19 @@
         <v>31.34583955592035</v>
       </c>
       <c r="M16" t="n">
-        <v>107.0297368802718</v>
+        <v>24.36707598317779</v>
       </c>
       <c r="N16" t="n">
         <v>15.69057404649867</v>
       </c>
       <c r="O16" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P16" t="n">
         <v>57.82293582615034</v>
       </c>
       <c r="Q16" t="n">
-        <v>126.7630388368461</v>
+        <v>204.652784203051</v>
       </c>
       <c r="R16" t="n">
         <v>203.1862066784475</v>
@@ -28588,7 +28588,7 @@
         <v>75.75587581289101</v>
       </c>
       <c r="K17" t="n">
-        <v>5.189869058379827</v>
+        <v>5.189869058379834</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,16 +28603,16 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>94.05438038984067</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.4066371593858</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R17" t="n">
         <v>194.1223785227292</v>
       </c>
       <c r="S17" t="n">
-        <v>227.241595838945</v>
+        <v>307.9419163346558</v>
       </c>
       <c r="T17" t="n">
         <v>222.4129770489855</v>
@@ -28652,19 +28652,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>76.16077822283435</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>66.07547725584595</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H18" t="n">
-        <v>43.01041263449368</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I18" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J18" t="n">
-        <v>51.86424478979233</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,10 +28685,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.3183216232903</v>
+        <v>119.4173302779648</v>
       </c>
       <c r="S18" t="n">
         <v>191.4706822307765</v>
@@ -28700,16 +28700,16 @@
         <v>237.2276440809881</v>
       </c>
       <c r="V18" t="n">
-        <v>167.8396491972419</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>266.7045835770116</v>
+        <v>184.0419226799177</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>134.6502535423767</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>140.7216252369317</v>
       </c>
     </row>
     <row r="19">
@@ -28758,7 +28758,7 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O19" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P19" t="n">
         <v>57.82293582615034</v>
@@ -28825,7 +28825,7 @@
         <v>75.75587581289101</v>
       </c>
       <c r="K20" t="n">
-        <v>5.189869058379827</v>
+        <v>5.189869058379834</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.3540598941296</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.4066371593858</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R20" t="n">
         <v>194.1223785227292</v>
       </c>
       <c r="S20" t="n">
-        <v>307.9419163346561</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T20" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495746512867</v>
+        <v>330.8498951469975</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28892,16 +28892,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7381381529399</v>
+        <v>133.8371468076145</v>
       </c>
       <c r="H21" t="n">
-        <v>52.8638018134273</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I21" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J21" t="n">
-        <v>51.86424478979233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,28 +28922,28 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S21" t="n">
-        <v>108.8080213336825</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T21" t="n">
         <v>214.9448597913225</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2276440809881</v>
+        <v>154.5649831838943</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>184.0419226799176</v>
+        <v>184.0419226799177</v>
       </c>
       <c r="X21" t="n">
-        <v>134.6502535423766</v>
+        <v>134.6502535423767</v>
       </c>
       <c r="Y21" t="n">
         <v>223.3842861340256</v>
@@ -28995,7 +28995,7 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O22" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P22" t="n">
         <v>57.82293582615034</v>
@@ -29062,7 +29062,7 @@
         <v>75.75587581289101</v>
       </c>
       <c r="K23" t="n">
-        <v>5.189869058379827</v>
+        <v>5.189869058379834</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.3540598941296</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.4066371593858</v>
+        <v>88.40663715938581</v>
       </c>
       <c r="R23" t="n">
         <v>194.1223785227292</v>
@@ -29089,13 +29089,13 @@
         <v>227.241595838945</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4129770489855</v>
+        <v>287.8296546053319</v>
       </c>
       <c r="U23" t="n">
-        <v>330.8498951469978</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W23" t="n">
         <v>336.1634265485166</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>94.08783350057175</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29123,22 +29123,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>89.16491094270569</v>
       </c>
       <c r="F24" t="n">
         <v>76.16077822283435</v>
       </c>
       <c r="G24" t="n">
-        <v>66.07547725584595</v>
+        <v>133.8371468076144</v>
       </c>
       <c r="H24" t="n">
-        <v>125.6730735315877</v>
+        <v>43.01041263449368</v>
       </c>
       <c r="I24" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J24" t="n">
-        <v>51.86424478979233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>134.3183216232903</v>
@@ -29174,7 +29174,7 @@
         <v>237.2276440809881</v>
       </c>
       <c r="V24" t="n">
-        <v>167.8396491972419</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
         <v>266.7045835770116</v>
@@ -29232,7 +29232,7 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O25" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P25" t="n">
         <v>57.82293582615034</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681933</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8454786681959</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="27">
@@ -29357,25 +29357,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I27" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J27" t="n">
-        <v>51.86424478979233</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,31 +29396,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042469</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
-        <v>65.24893275377872</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U27" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8454786681944</v>
+        <v>82.1705630106452</v>
       </c>
     </row>
     <row r="28">
@@ -29454,10 +29454,10 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J28" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K28" t="n">
-        <v>106.2621993886162</v>
+        <v>66.40014143752286</v>
       </c>
       <c r="L28" t="n">
         <v>31.34583955592035</v>
@@ -29466,40 +29466,40 @@
         <v>24.36707598317779</v>
       </c>
       <c r="N28" t="n">
-        <v>212.8454786681944</v>
+        <v>15.69057404649867</v>
       </c>
       <c r="O28" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P28" t="n">
-        <v>57.82293582615034</v>
+        <v>115.7683123975727</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7630388368461</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R28" t="n">
         <v>203.1862066784475</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8454786681944</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K29" t="n">
-        <v>212.845478668195</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681936</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="30">
@@ -29597,22 +29597,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>34.3163268923719</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I30" t="n">
-        <v>107.1407760227504</v>
+        <v>95.49321490581971</v>
       </c>
       <c r="J30" t="n">
-        <v>51.86424478979233</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,28 +29633,28 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V30" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -29667,10 +29667,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>212.8454786681945</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C31" t="n">
-        <v>186.7459464292602</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
         <v>145.1826502507107</v>
@@ -29691,13 +29691,13 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K31" t="n">
-        <v>66.40014143752286</v>
+        <v>210.4279578402939</v>
       </c>
       <c r="L31" t="n">
-        <v>212.8454786681945</v>
+        <v>31.34583955592035</v>
       </c>
       <c r="M31" t="n">
         <v>24.36707598317779</v>
@@ -29706,7 +29706,7 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O31" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P31" t="n">
         <v>57.82293582615034</v>
@@ -29718,25 +29718,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="32">
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>29.15394848324951</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29843,13 +29843,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I33" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J33" t="n">
-        <v>51.86424478979233</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,10 +29870,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042469</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3183216232903</v>
+        <v>73.89418084548096</v>
       </c>
       <c r="S33" t="n">
         <v>191.4706822307765</v>
@@ -29891,7 +29891,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>212.8454786681945</v>
@@ -29904,13 +29904,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6169206649681</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>204.8410453029551</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,13 +29919,13 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>212.8454786681945</v>
+        <v>168.695353780268</v>
       </c>
       <c r="H34" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I34" t="n">
-        <v>212.8454786681945</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J34" t="n">
         <v>119.8563324981777</v>
@@ -29943,16 +29943,16 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O34" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P34" t="n">
-        <v>202.5342342390209</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q34" t="n">
-        <v>126.7630388368461</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R34" t="n">
-        <v>203.1862066784475</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S34" t="n">
         <v>212.8454786681945</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5224587767563</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K35" t="n">
-        <v>235.6788355034176</v>
+        <v>5.189869058379834</v>
       </c>
       <c r="L35" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="O35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Q35" t="n">
-        <v>235.6788355034176</v>
+        <v>210.592144817969</v>
       </c>
       <c r="R35" t="n">
-        <v>235.6788355034176</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S35" t="n">
-        <v>235.6788355034176</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T35" t="n">
-        <v>235.6788355034176</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y35" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="36">
@@ -30086,7 +30086,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J36" t="n">
-        <v>51.86424478979233</v>
+        <v>13.82538531670578</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,28 +30107,28 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T36" t="n">
         <v>214.9448597913225</v>
       </c>
       <c r="U36" t="n">
-        <v>165.7537082385945</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V36" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30147,7 +30147,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D37" t="n">
-        <v>145.1826502507107</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E37" t="n">
         <v>141.676141212225</v>
@@ -30174,13 +30174,13 @@
         <v>31.34583955592035</v>
       </c>
       <c r="M37" t="n">
-        <v>143.7829284810627</v>
+        <v>24.36707598317779</v>
       </c>
       <c r="N37" t="n">
         <v>15.69057404649867</v>
       </c>
       <c r="O37" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P37" t="n">
         <v>57.82293582615034</v>
@@ -30189,7 +30189,7 @@
         <v>126.7630388368461</v>
       </c>
       <c r="R37" t="n">
-        <v>203.1862066784475</v>
+        <v>232.1058739236252</v>
       </c>
       <c r="S37" t="n">
         <v>235.3435685609305</v>
@@ -30198,13 +30198,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U37" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V37" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W37" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="J38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="L38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N38" t="n">
-        <v>139.1683988826267</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>13.3540598941296</v>
+        <v>152.5224587767541</v>
       </c>
       <c r="Q38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="R38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="S38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="T38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y38" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="39">
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>86.82154934803667</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30314,7 +30314,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>125.6730735315877</v>
@@ -30323,7 +30323,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J39" t="n">
-        <v>51.86424478979233</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>219.1753680944495</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -30381,7 +30381,7 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>214.8841373626429</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D40" t="n">
         <v>145.1826502507107</v>
@@ -30390,16 +30390,16 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>191.3592529931817</v>
       </c>
       <c r="G40" t="n">
-        <v>168.695353780268</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H40" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I40" t="n">
-        <v>235.6788355034176</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J40" t="n">
         <v>119.8563324981777</v>
@@ -30417,7 +30417,7 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O40" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P40" t="n">
         <v>57.82293582615034</v>
@@ -30435,13 +30435,13 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U40" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V40" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W40" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30481,22 +30481,22 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J41" t="n">
-        <v>75.75587581289101</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K41" t="n">
+        <v>152.5224587767541</v>
+      </c>
+      <c r="L41" t="n">
         <v>235.6788355034177</v>
       </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="N41" t="n">
-        <v>235.6788355034177</v>
-      </c>
-      <c r="O41" t="n">
-        <v>76.76658296386469</v>
       </c>
       <c r="P41" t="n">
         <v>235.6788355034177</v>
@@ -30548,7 +30548,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7381381529399</v>
@@ -30557,10 +30557,10 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>51.86424478979233</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,19 +30581,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.044035583042469</v>
+        <v>6.044035583042472</v>
       </c>
       <c r="R42" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S42" t="n">
-        <v>80.45888551240211</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>42.32390525452615</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V42" t="n">
         <v>235.6788355034177</v>
@@ -30602,10 +30602,10 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30642,7 +30642,7 @@
         <v>119.8563324981777</v>
       </c>
       <c r="K43" t="n">
-        <v>139.2287180727751</v>
+        <v>66.40014143752286</v>
       </c>
       <c r="L43" t="n">
         <v>31.34583955592035</v>
@@ -30654,19 +30654,19 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O43" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P43" t="n">
-        <v>57.82293582615034</v>
+        <v>177.2387883240351</v>
       </c>
       <c r="Q43" t="n">
         <v>126.7630388368461</v>
       </c>
       <c r="R43" t="n">
-        <v>235.6788355034177</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S43" t="n">
-        <v>235.6788355034177</v>
+        <v>235.3435685609305</v>
       </c>
       <c r="T43" t="n">
         <v>223.7383953681803</v>
@@ -30681,7 +30681,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X43" t="n">
-        <v>235.6788355034177</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
         <v>217.1412728141684</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="C44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="E44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="F44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="G44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K44" t="n">
-        <v>235.6788355034176</v>
+        <v>160.9596984412269</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>235.6788355034176</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="O44" t="n">
-        <v>100.7554583684019</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="P44" t="n">
-        <v>13.3540598941296</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Q44" t="n">
-        <v>88.4066371593858</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1223785227292</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="S44" t="n">
         <v>227.241595838945</v>
       </c>
       <c r="T44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
     </row>
     <row r="45">
@@ -30779,13 +30779,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7381381529399</v>
@@ -30797,7 +30797,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.044035583042469</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>134.3183216232903</v>
@@ -30827,22 +30827,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9448597913225</v>
+        <v>176.9060003182358</v>
       </c>
       <c r="U45" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X45" t="n">
-        <v>102.3928177961445</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -30876,10 +30876,10 @@
         <v>164.6899393962033</v>
       </c>
       <c r="J46" t="n">
-        <v>119.8563324981777</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="K46" t="n">
-        <v>66.40014143752286</v>
+        <v>69.99349093016745</v>
       </c>
       <c r="L46" t="n">
         <v>31.34583955592035</v>
@@ -30891,34 +30891,34 @@
         <v>15.69057404649867</v>
       </c>
       <c r="O46" t="n">
-        <v>36.71262952723529</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P46" t="n">
         <v>57.82293582615034</v>
       </c>
       <c r="Q46" t="n">
-        <v>220.1438041618315</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R46" t="n">
         <v>203.1862066784475</v>
       </c>
       <c r="S46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.3435685609305</v>
       </c>
       <c r="T46" t="n">
-        <v>235.6788355034176</v>
+        <v>223.7383953681803</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6788355034176</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="X46" t="n">
-        <v>235.6788355034176</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H11" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I11" t="n">
         <v>16.14596623061734</v>
@@ -31762,7 +31762,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K11" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L11" t="n">
         <v>66.09051464725104</v>
@@ -31777,7 +31777,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P11" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q11" t="n">
         <v>45.22619053982434</v>
@@ -31786,7 +31786,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S11" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T11" t="n">
         <v>1.833317351002591</v>
@@ -31829,28 +31829,28 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H12" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J12" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K12" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L12" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M12" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N12" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O12" t="n">
         <v>53.31438989479778</v>
@@ -31868,7 +31868,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474212119420368</v>
@@ -31914,7 +31914,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I13" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J13" t="n">
         <v>13.2817972807608</v>
@@ -31929,28 +31929,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N13" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O13" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R13" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H14" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I14" t="n">
         <v>16.14596623061734</v>
@@ -31999,7 +31999,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K14" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L14" t="n">
         <v>66.09051464725104</v>
@@ -32014,7 +32014,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P14" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q14" t="n">
         <v>45.22619053982434</v>
@@ -32023,7 +32023,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S14" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T14" t="n">
         <v>1.833317351002591</v>
@@ -32066,28 +32066,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H15" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J15" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K15" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L15" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M15" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N15" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O15" t="n">
         <v>53.31438989479778</v>
@@ -32105,7 +32105,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474212119420368</v>
@@ -32151,7 +32151,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I16" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J16" t="n">
         <v>13.2817972807608</v>
@@ -32166,28 +32166,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N16" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O16" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R16" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H17" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I17" t="n">
         <v>16.14596623061734</v>
@@ -32236,7 +32236,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K17" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L17" t="n">
         <v>66.09051464725104</v>
@@ -32251,7 +32251,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P17" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q17" t="n">
         <v>45.22619053982434</v>
@@ -32260,7 +32260,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S17" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T17" t="n">
         <v>1.833317351002591</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H18" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J18" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K18" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L18" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M18" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N18" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O18" t="n">
         <v>53.31438989479778</v>
@@ -32342,7 +32342,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474212119420368</v>
@@ -32388,7 +32388,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I19" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J19" t="n">
         <v>13.2817972807608</v>
@@ -32403,28 +32403,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N19" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O19" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R19" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,10 +32461,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H20" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I20" t="n">
         <v>16.14596623061734</v>
@@ -32473,7 +32473,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K20" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L20" t="n">
         <v>66.09051464725104</v>
@@ -32488,7 +32488,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P20" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q20" t="n">
         <v>45.22619053982434</v>
@@ -32497,7 +32497,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S20" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T20" t="n">
         <v>1.833317351002591</v>
@@ -32540,28 +32540,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H21" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J21" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K21" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L21" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M21" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N21" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O21" t="n">
         <v>53.31438989479778</v>
@@ -32579,7 +32579,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474212119420368</v>
@@ -32625,7 +32625,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I22" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J22" t="n">
         <v>13.2817972807608</v>
@@ -32640,28 +32640,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N22" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O22" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R22" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H23" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I23" t="n">
         <v>16.14596623061734</v>
@@ -32710,7 +32710,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K23" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L23" t="n">
         <v>66.09051464725104</v>
@@ -32725,7 +32725,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P23" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q23" t="n">
         <v>45.22619053982434</v>
@@ -32734,7 +32734,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S23" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T23" t="n">
         <v>1.833317351002591</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H24" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J24" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K24" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L24" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M24" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N24" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O24" t="n">
         <v>53.31438989479778</v>
@@ -32816,7 +32816,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474212119420368</v>
@@ -32862,7 +32862,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I25" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J25" t="n">
         <v>13.2817972807608</v>
@@ -32877,28 +32877,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N25" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O25" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R25" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H26" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I26" t="n">
         <v>16.14596623061734</v>
@@ -32947,7 +32947,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K26" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L26" t="n">
         <v>66.09051464725104</v>
@@ -32962,7 +32962,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P26" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q26" t="n">
         <v>45.22619053982434</v>
@@ -32971,7 +32971,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S26" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T26" t="n">
         <v>1.833317351002591</v>
@@ -33014,28 +33014,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H27" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J27" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K27" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L27" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M27" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N27" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O27" t="n">
         <v>53.31438989479778</v>
@@ -33053,7 +33053,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474212119420368</v>
@@ -33099,7 +33099,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I28" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J28" t="n">
         <v>13.2817972807608</v>
@@ -33114,28 +33114,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N28" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O28" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R28" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H29" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I29" t="n">
         <v>16.14596623061734</v>
@@ -33184,7 +33184,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K29" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L29" t="n">
         <v>66.09051464725104</v>
@@ -33199,7 +33199,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P29" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q29" t="n">
         <v>45.22619053982434</v>
@@ -33208,7 +33208,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S29" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T29" t="n">
         <v>1.833317351002591</v>
@@ -33251,28 +33251,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H30" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J30" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K30" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L30" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M30" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N30" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O30" t="n">
         <v>53.31438989479778</v>
@@ -33290,7 +33290,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474212119420368</v>
@@ -33336,7 +33336,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I31" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J31" t="n">
         <v>13.2817972807608</v>
@@ -33351,28 +33351,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N31" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O31" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R31" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H32" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I32" t="n">
         <v>16.14596623061734</v>
@@ -33421,7 +33421,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K32" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L32" t="n">
         <v>66.09051464725104</v>
@@ -33436,7 +33436,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P32" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q32" t="n">
         <v>45.22619053982434</v>
@@ -33445,7 +33445,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S32" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T32" t="n">
         <v>1.833317351002591</v>
@@ -33488,28 +33488,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H33" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J33" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K33" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L33" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M33" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N33" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O33" t="n">
         <v>53.31438989479778</v>
@@ -33527,7 +33527,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474212119420368</v>
@@ -33573,7 +33573,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I34" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J34" t="n">
         <v>13.2817972807608</v>
@@ -33588,28 +33588,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N34" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O34" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R34" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H35" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I35" t="n">
         <v>16.14596623061734</v>
@@ -33658,7 +33658,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K35" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L35" t="n">
         <v>66.09051464725104</v>
@@ -33673,7 +33673,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P35" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q35" t="n">
         <v>45.22619053982434</v>
@@ -33682,7 +33682,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S35" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T35" t="n">
         <v>1.833317351002591</v>
@@ -33725,28 +33725,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H36" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J36" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K36" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L36" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M36" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N36" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O36" t="n">
         <v>53.31438989479778</v>
@@ -33764,7 +33764,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474212119420368</v>
@@ -33810,7 +33810,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I37" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J37" t="n">
         <v>13.2817972807608</v>
@@ -33825,28 +33825,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N37" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O37" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R37" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H38" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I38" t="n">
         <v>16.14596623061734</v>
@@ -33895,7 +33895,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K38" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L38" t="n">
         <v>66.09051464725104</v>
@@ -33910,7 +33910,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P38" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q38" t="n">
         <v>45.22619053982434</v>
@@ -33919,7 +33919,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S38" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T38" t="n">
         <v>1.833317351002591</v>
@@ -33962,28 +33962,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H39" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J39" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K39" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L39" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M39" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N39" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O39" t="n">
         <v>53.31438989479778</v>
@@ -34001,7 +34001,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474212119420368</v>
@@ -34047,7 +34047,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I40" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J40" t="n">
         <v>13.2817972807608</v>
@@ -34062,28 +34062,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N40" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O40" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R40" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H41" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I41" t="n">
         <v>16.14596623061734</v>
@@ -34132,7 +34132,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K41" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L41" t="n">
         <v>66.09051464725104</v>
@@ -34147,7 +34147,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P41" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q41" t="n">
         <v>45.22619053982434</v>
@@ -34156,7 +34156,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S41" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T41" t="n">
         <v>1.833317351002591</v>
@@ -34199,28 +34199,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H42" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J42" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K42" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L42" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M42" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N42" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O42" t="n">
         <v>53.31438989479778</v>
@@ -34238,7 +34238,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474212119420368</v>
@@ -34284,7 +34284,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I43" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J43" t="n">
         <v>13.2817972807608</v>
@@ -34299,28 +34299,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N43" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O43" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R43" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188046490011628</v>
+        <v>0.4188046490011627</v>
       </c>
       <c r="H44" t="n">
-        <v>4.289083111583159</v>
+        <v>4.289083111583158</v>
       </c>
       <c r="I44" t="n">
         <v>16.14596623061734</v>
@@ -34369,7 +34369,7 @@
         <v>35.54552107816247</v>
       </c>
       <c r="K44" t="n">
-        <v>53.2735218703817</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L44" t="n">
         <v>66.09051464725104</v>
@@ -34384,7 +34384,7 @@
         <v>70.56387180439471</v>
       </c>
       <c r="P44" t="n">
-        <v>60.2246320321785</v>
+        <v>60.22463203217849</v>
       </c>
       <c r="Q44" t="n">
         <v>45.22619053982434</v>
@@ -34393,7 +34393,7 @@
         <v>26.30773753281931</v>
       </c>
       <c r="S44" t="n">
-        <v>9.543510939114006</v>
+        <v>9.543510939114004</v>
       </c>
       <c r="T44" t="n">
         <v>1.833317351002591</v>
@@ -34436,28 +34436,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2240802421518959</v>
+        <v>0.2240802421518958</v>
       </c>
       <c r="H45" t="n">
         <v>2.1641433913091</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715043424966591</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J45" t="n">
-        <v>21.1706688429561</v>
+        <v>21.17066884295609</v>
       </c>
       <c r="K45" t="n">
-        <v>36.18404506713312</v>
+        <v>36.18404506713311</v>
       </c>
       <c r="L45" t="n">
-        <v>48.65391398127021</v>
+        <v>48.6539139812702</v>
       </c>
       <c r="M45" t="n">
         <v>56.77682275927641</v>
       </c>
       <c r="N45" t="n">
-        <v>58.27953631300559</v>
+        <v>58.27953631300558</v>
       </c>
       <c r="O45" t="n">
         <v>53.31438989479778</v>
@@ -34475,7 +34475,7 @@
         <v>4.162192217163502</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032006251648782</v>
+        <v>0.9032006251648781</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474212119420368</v>
@@ -34521,7 +34521,7 @@
         <v>1.670258163891484</v>
       </c>
       <c r="I46" t="n">
-        <v>5.6495030737761</v>
+        <v>5.649503073776099</v>
       </c>
       <c r="J46" t="n">
         <v>13.2817972807608</v>
@@ -34536,28 +34536,28 @@
         <v>29.44812016357958</v>
       </c>
       <c r="N46" t="n">
-        <v>28.74790968587459</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O46" t="n">
         <v>26.55334757892104</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72097608631112</v>
+        <v>22.72097608631111</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73082612229494</v>
+        <v>15.73082612229493</v>
       </c>
       <c r="R46" t="n">
-        <v>8.446929323729316</v>
+        <v>8.446929323729314</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273910940879316</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026803037106305</v>
+        <v>0.8026803037106304</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024698260056126</v>
+        <v>0.01024698260056125</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>49.09995541255847</v>
       </c>
       <c r="M11" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N11" t="n">
         <v>78.24522996402483</v>
@@ -35428,10 +35428,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>70.16991481538935</v>
+        <v>70.16991481538901</v>
       </c>
       <c r="R11" t="n">
-        <v>10.53040568032176</v>
+        <v>10.53040568032178</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L12" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>39.93179230373609</v>
       </c>
       <c r="N12" t="n">
-        <v>79.32275540630231</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O12" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P12" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,28 +35541,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.03586353808291</v>
+        <v>27.03586353808294</v>
       </c>
       <c r="C13" t="n">
-        <v>38.19560323107865</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>59.47013395234029</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8.907842387051829</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>35.95743042278299</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.8765854725026</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>39.96284480684771</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>63.55500529270335</v>
       </c>
       <c r="P13" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>77.88974536620498</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>70.16991481538899</v>
       </c>
       <c r="L14" t="n">
         <v>49.09995541255847</v>
       </c>
       <c r="M14" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N14" t="n">
         <v>78.24522996402483</v>
@@ -35665,10 +35665,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>70.16991481538935</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>10.53040568032176</v>
+        <v>10.53040568032178</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.39096310256613</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="M15" t="n">
-        <v>39.9317923037362</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O15" t="n">
-        <v>82.66266089709399</v>
+        <v>79.32275540630219</v>
       </c>
       <c r="P15" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,28 +35778,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.03586353808291</v>
+        <v>27.03586353808294</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.19560323107868</v>
       </c>
       <c r="D16" t="n">
-        <v>39.76141825152133</v>
+        <v>59.47013395234032</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.97664299082604</v>
       </c>
       <c r="F16" t="n">
-        <v>65.72590198460435</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>35.95743042278299</v>
+        <v>25.53813082239986</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.96284480684768</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -35823,7 +35823,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>77.88974536620498</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>49.09995541255847</v>
       </c>
       <c r="M17" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N17" t="n">
         <v>78.24522996402483</v>
@@ -35899,7 +35899,7 @@
         <v>36.60257132819588</v>
       </c>
       <c r="P17" t="n">
-        <v>80.70032049571108</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35908,7 +35908,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>80.7003204957108</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="M18" t="n">
-        <v>79.32275540630231</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N18" t="n">
-        <v>82.66266089709399</v>
+        <v>39.9317923037361</v>
       </c>
       <c r="O18" t="n">
-        <v>82.66266089709399</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>49.09995541255847</v>
       </c>
       <c r="M20" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="N20" t="n">
         <v>78.24522996402483</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.70032049571108</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.7003204957108</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L21" t="n">
-        <v>39.9317923037362</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>39.93179230373609</v>
       </c>
       <c r="N21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="O21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="P21" t="n">
-        <v>82.66266089709399</v>
+        <v>82.66266089709387</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>65.41667755634647</v>
       </c>
       <c r="U23" t="n">
-        <v>80.70032049571108</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>15.2836429393646</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M24" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="N24" t="n">
-        <v>79.32275540630231</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>82.66266089709399</v>
       </c>
       <c r="P24" t="n">
-        <v>82.66266089709399</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0896028553034</v>
+        <v>137.0896028553036</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6556096098146</v>
+        <v>207.6556096098148</v>
       </c>
       <c r="L26" t="n">
-        <v>261.9454340807529</v>
+        <v>261.9454340807531</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6462756582026</v>
+        <v>296.6462756582029</v>
       </c>
       <c r="N26" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322181</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4480499963903</v>
+        <v>249.4480499963905</v>
       </c>
       <c r="P26" t="n">
-        <v>199.4914187740648</v>
+        <v>199.491418774065</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4388415088086</v>
+        <v>124.4388415088088</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546661</v>
+        <v>18.72310014546536</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L27" t="n">
         <v>119.9221144064652</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>92.98914617001688</v>
       </c>
       <c r="K28" t="n">
-        <v>39.86205795109336</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -36762,16 +36762,16 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>197.1549046216957</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>57.94537657142241</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.08243983134855</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0896028553035</v>
+        <v>137.0896028553036</v>
       </c>
       <c r="K29" t="n">
-        <v>207.6556096098152</v>
+        <v>207.6556096098148</v>
       </c>
       <c r="L29" t="n">
-        <v>261.945434080753</v>
+        <v>261.9454340807531</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6462756582027</v>
+        <v>296.6462756582029</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322194</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4480499963904</v>
+        <v>249.4480499963905</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4914187740649</v>
+        <v>199.491418774065</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4388415088087</v>
+        <v>124.4388415088088</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546528</v>
+        <v>18.72310014546431</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L30" t="n">
         <v>119.9221144064652</v>
@@ -36963,10 +36963,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.22855800322642</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.2887654572879</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92.98914617001688</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>144.027816402771</v>
       </c>
       <c r="L31" t="n">
-        <v>181.4996391122742</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0896028553036</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K32" t="n">
         <v>207.6556096098147</v>
@@ -37078,19 +37078,19 @@
         <v>296.6462756582027</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O32" t="n">
         <v>249.4480499963904</v>
       </c>
       <c r="P32" t="n">
-        <v>199.491418774065</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q32" t="n">
         <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546531</v>
+        <v>18.72310014546528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L33" t="n">
         <v>119.9221144064652</v>
@@ -37200,13 +37200,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>35.22855800322642</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>46.38829769622217</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>59.6583950522444</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,13 +37215,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>44.15012488792654</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>48.15553927199123</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>144.7112984128705</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.08243983134847</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>9.659271989747062</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>76.7665829638653</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K35" t="n">
-        <v>230.4889664450378</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>284.7787909159761</v>
+        <v>49.09995541255847</v>
       </c>
       <c r="M35" t="n">
-        <v>83.80079699000822</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N35" t="n">
-        <v>78.24522996402483</v>
+        <v>313.9240654674425</v>
       </c>
       <c r="O35" t="n">
         <v>272.2814068316135</v>
       </c>
       <c r="P35" t="n">
-        <v>222.324775609288</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q35" t="n">
-        <v>147.2721983440318</v>
+        <v>122.1855076585832</v>
       </c>
       <c r="R35" t="n">
-        <v>41.55645698068838</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472619</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.26585845443216</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L36" t="n">
         <v>119.9221144064652</v>
@@ -37443,7 +37443,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>90.49618525270697</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -37470,7 +37470,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>119.4158524978849</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -37485,7 +37485,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.91966724517776</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>159.9229596905266</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K38" t="n">
         <v>230.4889664450378</v>
       </c>
       <c r="L38" t="n">
-        <v>284.7787909159761</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M38" t="n">
-        <v>83.80079699000822</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N38" t="n">
-        <v>217.4136288466515</v>
+        <v>78.24522996402483</v>
       </c>
       <c r="O38" t="n">
-        <v>272.2814068316135</v>
+        <v>36.60257132819588</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>139.1683988826245</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.2721983440318</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R38" t="n">
-        <v>41.55645698068838</v>
+        <v>41.55645698068843</v>
       </c>
       <c r="S38" t="n">
-        <v>8.437239664472619</v>
+        <v>8.437239664472674</v>
       </c>
       <c r="T38" t="n">
-        <v>13.26585845443216</v>
+        <v>13.26585845443222</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L39" t="n">
         <v>119.9221144064652</v>
@@ -37677,7 +37677,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>48.4269563906706</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -37686,16 +37686,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>52.4323707747351</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>66.98348172314967</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>70.9888961072143</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K41" t="n">
-        <v>230.4889664450378</v>
+        <v>147.3325897183743</v>
       </c>
       <c r="L41" t="n">
-        <v>49.09995541255847</v>
+        <v>284.7787909159762</v>
       </c>
       <c r="M41" t="n">
-        <v>319.4796324934259</v>
+        <v>83.80079699000822</v>
       </c>
       <c r="N41" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402483</v>
       </c>
       <c r="O41" t="n">
-        <v>113.3691542920606</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P41" t="n">
         <v>222.3247756092881</v>
@@ -37801,10 +37801,10 @@
         <v>147.2721983440319</v>
       </c>
       <c r="R41" t="n">
-        <v>41.55645698068844</v>
+        <v>41.55645698068843</v>
       </c>
       <c r="S41" t="n">
-        <v>8.437239664472676</v>
+        <v>8.437239664472674</v>
       </c>
       <c r="T41" t="n">
         <v>13.26585845443222</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L42" t="n">
         <v>119.9221144064652</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>72.82857663525219</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37953,16 +37953,16 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>119.4158524978848</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>32.49262882497022</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0.3352669424871779</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -37977,7 +37977,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>13.75938009517515</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>159.9229596905266</v>
+        <v>159.9229596905267</v>
       </c>
       <c r="K44" t="n">
-        <v>230.4889664450378</v>
+        <v>155.7698293828471</v>
       </c>
       <c r="L44" t="n">
-        <v>284.7787909159761</v>
+        <v>49.09995541255847</v>
       </c>
       <c r="M44" t="n">
-        <v>319.4796324934258</v>
+        <v>83.80079699000822</v>
       </c>
       <c r="N44" t="n">
-        <v>313.9240654674425</v>
+        <v>313.9240654674426</v>
       </c>
       <c r="O44" t="n">
-        <v>137.3580296965978</v>
+        <v>272.2814068316136</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>147.2721983440319</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.55645698068849</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>13.26585845443216</v>
+        <v>13.26585845443228</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39096310256613</v>
+        <v>39.39096310256612</v>
       </c>
       <c r="L45" t="n">
         <v>119.9221144064652</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>115.82250300524</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>3.593349492644598</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>93.38076532498542</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.3352669424871211</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>11.9404401352373</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.75938009517509</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
